--- a/data/Baltimore Data/Baltimore_Master.xlsx
+++ b/data/Baltimore Data/Baltimore_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Midterm\Baltimore Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6379EBB-092E-4082-A330-76DB80EFFBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73488AF2-F9F4-419D-AF93-FF4D99E3A567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FEFAC233-E257-47F6-B14B-35AD3F2DEE05}"/>
   </bookViews>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CT2010</t>
-  </si>
-  <si>
-    <t>No Data</t>
   </si>
   <si>
     <t>DiversityIndex</t>
@@ -405,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C81F8-91BC-41F4-8391-004E67164647}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,4022 +423,3985 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>24510280500</v>
+        <v>24510271102</v>
       </c>
       <c r="B2">
-        <v>13644</v>
+        <v>213200</v>
       </c>
       <c r="C2">
-        <v>80.400000000000006</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>7.2</v>
       </c>
       <c r="E2">
-        <v>28.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F2">
-        <v>9968.5410931999995</v>
+        <v>9317.7933817899993</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>24510280404</v>
+        <v>24510271300</v>
       </c>
       <c r="B3">
-        <v>37292</v>
+        <v>154432</v>
       </c>
       <c r="C3">
-        <v>38.9</v>
+        <v>1.9</v>
       </c>
       <c r="D3">
-        <v>19.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3">
-        <v>38.6</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>6901.0654490099996</v>
+        <v>2518.97580303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24510280403</v>
+        <v>24510271200</v>
       </c>
       <c r="B4">
-        <v>62945</v>
+        <v>148788</v>
       </c>
       <c r="C4">
-        <v>19.3</v>
+        <v>6.1</v>
       </c>
       <c r="D4">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="E4">
-        <v>45.1</v>
+        <v>37.5</v>
       </c>
       <c r="F4">
-        <v>7162.6238951799996</v>
+        <v>4388.9108626099996</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>24510280402</v>
+        <v>24510010300</v>
       </c>
       <c r="B5">
-        <v>48276</v>
+        <v>138686</v>
       </c>
       <c r="C5">
-        <v>17.100000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>8.6999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="E5">
-        <v>10.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F5">
-        <v>7308.6924219900002</v>
+        <v>8356.3562048200001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>24510280401</v>
+        <v>24510240200</v>
       </c>
       <c r="B6">
-        <v>46139</v>
+        <v>136913</v>
       </c>
       <c r="C6">
-        <v>21.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D6">
-        <v>12.9</v>
+        <v>1.2</v>
       </c>
       <c r="E6">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="F6">
-        <v>5619.12868041</v>
+        <v>15369.859729</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>24510280302</v>
+        <v>24510240100</v>
       </c>
       <c r="B7">
-        <v>43438</v>
+        <v>129508</v>
       </c>
       <c r="C7">
-        <v>28.3</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>20.3</v>
       </c>
       <c r="F7">
-        <v>6101.9305845199997</v>
+        <v>3713.6409917699998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>24510280301</v>
+        <v>24510271400</v>
       </c>
       <c r="B8">
-        <v>37163</v>
+        <v>122344</v>
       </c>
       <c r="C8">
-        <v>34.1</v>
+        <v>11.3</v>
       </c>
       <c r="D8">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
-        <v>23.3</v>
+        <v>46.9</v>
       </c>
       <c r="F8">
-        <v>3282.2967273099998</v>
+        <v>5613.6654375799999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>24510280200</v>
+        <v>24510261100</v>
       </c>
       <c r="B9">
-        <v>57097</v>
+        <v>121000</v>
       </c>
       <c r="C9">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="D9">
-        <v>13.1</v>
+        <v>4.8</v>
       </c>
       <c r="E9">
-        <v>15.4</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F9">
-        <v>5177.1467787600004</v>
+        <v>22993.517972900001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>24510280102</v>
+        <v>24510240300</v>
       </c>
       <c r="B10">
-        <v>55243</v>
+        <v>116406</v>
       </c>
       <c r="C10">
-        <v>13.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D10">
-        <v>10.5</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
-        <v>12.3</v>
+        <v>24.4</v>
       </c>
       <c r="F10">
-        <v>4476.9155570000003</v>
+        <v>27650.781350900001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>24510280101</v>
+        <v>24510010400</v>
       </c>
       <c r="B11">
-        <v>47440</v>
+        <v>114453</v>
       </c>
       <c r="C11">
-        <v>27.6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="E11">
-        <v>27.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F11">
-        <v>5933.5282973800004</v>
+        <v>19890.498302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>24510272007</v>
+        <v>24510010100</v>
       </c>
       <c r="B12">
-        <v>39777</v>
+        <v>109808</v>
       </c>
       <c r="C12">
-        <v>19.7</v>
+        <v>6.7</v>
       </c>
       <c r="D12">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="E12">
-        <v>75.8</v>
+        <v>27.5</v>
       </c>
       <c r="F12">
-        <v>14068.943299</v>
+        <v>19906.4620249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>24510272006</v>
+        <v>24510230200</v>
       </c>
       <c r="B13">
-        <v>32500</v>
+        <v>109286</v>
       </c>
       <c r="C13">
-        <v>41.1</v>
+        <v>23.5</v>
       </c>
       <c r="D13">
-        <v>6.3</v>
+        <v>11.8</v>
       </c>
       <c r="E13">
-        <v>54.1</v>
+        <v>27.7</v>
       </c>
       <c r="F13">
-        <v>12467.934076</v>
+        <v>25854.064992299998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>24510272005</v>
+        <v>24510020300</v>
       </c>
       <c r="B14">
-        <v>59500</v>
+        <v>108516</v>
       </c>
       <c r="C14">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D14">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>42.9</v>
+        <v>44.1</v>
       </c>
       <c r="F14">
-        <v>9573.3988497400005</v>
+        <v>13068.625918399999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>24510272004</v>
+        <v>24510010200</v>
       </c>
       <c r="B15">
-        <v>42800</v>
+        <v>107617</v>
       </c>
       <c r="C15">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="D15">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="E15">
-        <v>44.1</v>
+        <v>66.3</v>
       </c>
       <c r="F15">
-        <v>13839.4651273</v>
+        <v>21944.2823804</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>24510272003</v>
+        <v>24510230300</v>
       </c>
       <c r="B16">
-        <v>66250</v>
+        <v>106806</v>
       </c>
       <c r="C16">
-        <v>15.1</v>
+        <v>3.4</v>
       </c>
       <c r="D16">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>52.1</v>
+        <v>28.8</v>
       </c>
       <c r="F16">
-        <v>7788.3997429299998</v>
+        <v>2245.23677761</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>24510271900</v>
+        <v>24510260900</v>
       </c>
       <c r="B17">
-        <v>51736</v>
+        <v>104342</v>
       </c>
       <c r="C17">
-        <v>20.2</v>
+        <v>6.9</v>
       </c>
       <c r="D17">
-        <v>12.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E17">
-        <v>41.8</v>
+        <v>45.3</v>
       </c>
       <c r="F17">
-        <v>6985.3553774100001</v>
+        <v>12474.129821299999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>24510271802</v>
+        <v>24510240400</v>
       </c>
       <c r="B18">
-        <v>29495</v>
+        <v>103250</v>
       </c>
       <c r="C18">
-        <v>48.1</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>24.6</v>
+        <v>10.8</v>
       </c>
       <c r="E18">
-        <v>10.4</v>
+        <v>23.3</v>
       </c>
       <c r="F18">
-        <v>14619.254628000001</v>
+        <v>5524.0428000499996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>24510271801</v>
+        <v>24510271501</v>
       </c>
       <c r="B19">
-        <v>30462</v>
+        <v>100167</v>
       </c>
       <c r="C19">
-        <v>34.299999999999997</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D19">
-        <v>20.2</v>
+        <v>0.7</v>
       </c>
       <c r="E19">
-        <v>9.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F19">
-        <v>14738.6500789</v>
+        <v>2975.8051320700001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>24510271700</v>
+        <v>24510010500</v>
       </c>
       <c r="B20">
-        <v>41891</v>
+        <v>99167</v>
       </c>
       <c r="C20">
-        <v>34.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D20">
-        <v>20.100000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="E20">
-        <v>15.8</v>
+        <v>50.1</v>
       </c>
       <c r="F20">
-        <v>8435.8943720900006</v>
+        <v>28762.095428799999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24510271600</v>
+        <v>24510130600</v>
       </c>
       <c r="B21">
-        <v>28133</v>
+        <v>95500</v>
       </c>
       <c r="C21">
-        <v>50.9</v>
+        <v>15.6</v>
       </c>
       <c r="D21">
-        <v>24.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E21">
-        <v>10.8</v>
+        <v>29.5</v>
       </c>
       <c r="F21">
-        <v>13777.4528618</v>
+        <v>10632.7462492</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>24510271503</v>
+        <v>24510020100</v>
       </c>
       <c r="B22">
-        <v>71875</v>
+        <v>90500</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>17.5</v>
       </c>
       <c r="D22">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="E22">
-        <v>33.5</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>2994.3680694</v>
+        <v>27956.670129099999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>24510271501</v>
+        <v>24510020200</v>
       </c>
       <c r="B23">
-        <v>100167</v>
+        <v>89375</v>
       </c>
       <c r="C23">
-        <v>2.2000000000000002</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D23">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>40.200000000000003</v>
+        <v>83.5</v>
       </c>
       <c r="F23">
-        <v>2975.8051320700001</v>
+        <v>27363.314540399999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24510271400</v>
+        <v>24510130806</v>
       </c>
       <c r="B24">
-        <v>122344</v>
+        <v>87188</v>
       </c>
       <c r="C24">
-        <v>11.3</v>
+        <v>14.3</v>
       </c>
       <c r="D24">
-        <v>1.4</v>
+        <v>11.4</v>
       </c>
       <c r="E24">
-        <v>46.9</v>
+        <v>55.4</v>
       </c>
       <c r="F24">
-        <v>5613.6654375799999</v>
+        <v>2642.4152894499998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24510271300</v>
+        <v>24510120201</v>
       </c>
       <c r="B25">
-        <v>154432</v>
+        <v>82917</v>
       </c>
       <c r="C25">
-        <v>1.9</v>
+        <v>16.5</v>
       </c>
       <c r="D25">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>55.7</v>
       </c>
       <c r="F25">
-        <v>2518.97580303</v>
+        <v>15129.865297300001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24510271200</v>
+        <v>24510270402</v>
       </c>
       <c r="B26">
-        <v>148788</v>
+        <v>79833</v>
       </c>
       <c r="C26">
-        <v>6.1</v>
+        <v>11.1</v>
       </c>
       <c r="D26">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="E26">
-        <v>37.5</v>
+        <v>56.3</v>
       </c>
       <c r="F26">
-        <v>4388.9108626099996</v>
+        <v>6964.0045722200002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>24510271102</v>
+        <v>24510030200</v>
       </c>
       <c r="B27">
-        <v>213200</v>
+        <v>77301</v>
       </c>
       <c r="C27">
-        <v>1.4</v>
+        <v>23.3</v>
       </c>
       <c r="D27">
-        <v>7.2</v>
+        <v>11.9</v>
       </c>
       <c r="E27">
-        <v>39.200000000000003</v>
+        <v>66.8</v>
       </c>
       <c r="F27">
-        <v>9317.7933817899993</v>
+        <v>11954.4688888</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24510271101</v>
+        <v>24510220100</v>
       </c>
       <c r="B28">
-        <v>55820</v>
+        <v>75652</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="E28">
-        <v>60.4</v>
+        <v>46.4</v>
       </c>
       <c r="F28">
-        <v>5236.7545431299995</v>
+        <v>9022.2361696400003</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24510271002</v>
+        <v>24510270200</v>
       </c>
       <c r="B29">
-        <v>37232</v>
+        <v>74236</v>
       </c>
       <c r="C29">
-        <v>19.7</v>
+        <v>10.3</v>
       </c>
       <c r="D29">
-        <v>13.7</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>13.4</v>
+        <v>59.8</v>
       </c>
       <c r="F29">
-        <v>11198.7424452</v>
+        <v>5281.0197831300002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24510271001</v>
+        <v>24510270302</v>
       </c>
       <c r="B30">
-        <v>41192</v>
+        <v>73967</v>
       </c>
       <c r="C30">
-        <v>34.9</v>
+        <v>8.9</v>
       </c>
       <c r="D30">
-        <v>19.7</v>
+        <v>8.1</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>57.4</v>
       </c>
       <c r="F30">
-        <v>11815.517507299999</v>
+        <v>8822.6467940399998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>24510270903</v>
+        <v>24510270101</v>
       </c>
       <c r="B31">
-        <v>48611</v>
+        <v>73523</v>
       </c>
       <c r="C31">
-        <v>21.3</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>10.3</v>
+        <v>19.8</v>
       </c>
       <c r="E31">
-        <v>28</v>
+        <v>58.9</v>
       </c>
       <c r="F31">
-        <v>10948.8356604</v>
+        <v>4610.4971625600001</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>24510270902</v>
+        <v>24510060200</v>
       </c>
       <c r="B32">
-        <v>57356</v>
+        <v>72465</v>
       </c>
       <c r="C32">
-        <v>10.1</v>
+        <v>21.3</v>
       </c>
       <c r="D32">
-        <v>8.9</v>
+        <v>18.3</v>
       </c>
       <c r="E32">
-        <v>18.100000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F32">
-        <v>10868.770004600001</v>
+        <v>32810.772786699999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>24510270901</v>
+        <v>24510271503</v>
       </c>
       <c r="B33">
-        <v>52803</v>
+        <v>71875</v>
       </c>
       <c r="C33">
-        <v>26.3</v>
+        <v>3.7</v>
       </c>
       <c r="D33">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="E33">
-        <v>11.8</v>
+        <v>33.5</v>
       </c>
       <c r="F33">
-        <v>15455.4837723</v>
+        <v>2994.3680694</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>24510270805</v>
+        <v>24510230100</v>
       </c>
       <c r="B34">
-        <v>54139</v>
+        <v>71287</v>
       </c>
       <c r="C34">
-        <v>9.6999999999999993</v>
+        <v>13.7</v>
       </c>
       <c r="D34">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="E34">
-        <v>27.7</v>
+        <v>57.9</v>
       </c>
       <c r="F34">
-        <v>10285.3819632</v>
+        <v>15039.273063299999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>24510270804</v>
+        <v>24510090200</v>
       </c>
       <c r="B35">
-        <v>56903</v>
+        <v>70500</v>
       </c>
       <c r="C35">
-        <v>17.899999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="E35">
-        <v>68.400000000000006</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F35">
-        <v>10068.222621200001</v>
+        <v>4652.7309507800001</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>24510270803</v>
+        <v>24510270502</v>
       </c>
       <c r="B36">
-        <v>51510</v>
+        <v>69500</v>
       </c>
       <c r="C36">
-        <v>26.9</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>59.1</v>
       </c>
       <c r="F36">
-        <v>7410.5601664699998</v>
+        <v>7337.5508967899996</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24510270802</v>
+        <v>24510060300</v>
       </c>
       <c r="B37">
-        <v>50354</v>
+        <v>68088</v>
       </c>
       <c r="C37">
-        <v>33.700000000000003</v>
+        <v>18.3</v>
       </c>
       <c r="D37">
-        <v>8.3000000000000007</v>
+        <v>10.9</v>
       </c>
       <c r="E37">
-        <v>17.899999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="F37">
-        <v>11756.3939522</v>
+        <v>24916.943521599998</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>24510270801</v>
+        <v>24510130804</v>
       </c>
       <c r="B38">
-        <v>53614</v>
+        <v>67019</v>
       </c>
       <c r="C38">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="D38">
-        <v>8.6</v>
+        <v>14.9</v>
       </c>
       <c r="E38">
-        <v>31.4</v>
+        <v>34.1</v>
       </c>
       <c r="F38">
-        <v>12984.390525299999</v>
+        <v>6846.9162609900004</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>24510270703</v>
+        <v>24510272003</v>
       </c>
       <c r="B39">
-        <v>61199</v>
+        <v>66250</v>
       </c>
       <c r="C39">
-        <v>9.3000000000000007</v>
+        <v>15.1</v>
       </c>
       <c r="D39">
-        <v>22.2</v>
+        <v>9.6</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>52.1</v>
       </c>
       <c r="F39">
-        <v>7551.7915309399996</v>
+        <v>7788.3997429299998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>24510270702</v>
+        <v>24510120100</v>
       </c>
       <c r="B40">
-        <v>53532</v>
+        <v>65313</v>
       </c>
       <c r="C40">
-        <v>12.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D40">
-        <v>14.1</v>
+        <v>1.4</v>
       </c>
       <c r="E40">
-        <v>49.1</v>
+        <v>53.5</v>
       </c>
       <c r="F40">
-        <v>7108.9036504400001</v>
+        <v>11946.626761400001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>24510270701</v>
+        <v>24510270102</v>
       </c>
       <c r="B41">
-        <v>36994</v>
+        <v>65237</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>13.1</v>
       </c>
       <c r="D41">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="E41">
-        <v>16.399999999999999</v>
+        <v>44.4</v>
       </c>
       <c r="F41">
-        <v>17237.237237199999</v>
+        <v>9510.1595596299994</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>24510270600</v>
+        <v>24510270301</v>
       </c>
       <c r="B42">
-        <v>59375</v>
+        <v>65223</v>
       </c>
       <c r="C42">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="D42">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="E42">
-        <v>56.2</v>
+        <v>53.3</v>
       </c>
       <c r="F42">
-        <v>7671.5478034899998</v>
+        <v>7152.4322359300004</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>24510270502</v>
+        <v>24510270401</v>
       </c>
       <c r="B43">
-        <v>69500</v>
+        <v>65098</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
       <c r="E43">
-        <v>59.1</v>
+        <v>49.4</v>
       </c>
       <c r="F43">
-        <v>7337.5508967899996</v>
+        <v>9619.1102500800007</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>24510270501</v>
+        <v>24510120700</v>
       </c>
       <c r="B44">
-        <v>61227</v>
+        <v>65068</v>
       </c>
       <c r="C44">
-        <v>2.1</v>
+        <v>24.8</v>
       </c>
       <c r="D44">
-        <v>8.9</v>
+        <v>12.9</v>
       </c>
       <c r="E44">
-        <v>56</v>
+        <v>66.2</v>
       </c>
       <c r="F44">
-        <v>4930.50442853</v>
+        <v>6140.4161396700001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>24510270402</v>
+        <v>24510210100</v>
       </c>
       <c r="B45">
-        <v>79833</v>
+        <v>63558</v>
       </c>
       <c r="C45">
-        <v>11.1</v>
+        <v>17.5</v>
       </c>
       <c r="D45">
-        <v>7.4</v>
+        <v>11.8</v>
       </c>
       <c r="E45">
-        <v>56.3</v>
+        <v>59.7</v>
       </c>
       <c r="F45">
-        <v>6964.0045722200002</v>
+        <v>4275.5630494999996</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>24510270401</v>
+        <v>24510080101</v>
       </c>
       <c r="B46">
-        <v>65098</v>
+        <v>63542</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="D46">
         <v>11.6</v>
       </c>
       <c r="E46">
-        <v>49.4</v>
+        <v>44</v>
       </c>
       <c r="F46">
-        <v>9619.1102500800007</v>
+        <v>4341.9889688200001</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>24510270302</v>
+        <v>24510280403</v>
       </c>
       <c r="B47">
-        <v>73967</v>
+        <v>62945</v>
       </c>
       <c r="C47">
-        <v>8.9</v>
+        <v>19.3</v>
       </c>
       <c r="D47">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="E47">
-        <v>57.4</v>
+        <v>45.1</v>
       </c>
       <c r="F47">
-        <v>8822.6467940399998</v>
+        <v>7162.6238951799996</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24510270301</v>
+        <v>24510040100</v>
       </c>
       <c r="B48">
-        <v>65223</v>
+        <v>62500</v>
       </c>
       <c r="C48">
-        <v>5.8</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D48">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="E48">
-        <v>53.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F48">
-        <v>7152.4322359300004</v>
+        <v>8647.2251602699998</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>24510270200</v>
+        <v>24510270501</v>
       </c>
       <c r="B49">
-        <v>74236</v>
+        <v>61227</v>
       </c>
       <c r="C49">
-        <v>10.3</v>
+        <v>2.1</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="E49">
-        <v>59.8</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>5281.0197831300002</v>
+        <v>4930.50442853</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>24510270102</v>
+        <v>24510270703</v>
       </c>
       <c r="B50">
-        <v>65237</v>
+        <v>61199</v>
       </c>
       <c r="C50">
-        <v>13.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D50">
-        <v>9.4</v>
+        <v>22.2</v>
       </c>
       <c r="E50">
-        <v>44.4</v>
+        <v>61</v>
       </c>
       <c r="F50">
-        <v>9510.1595596299994</v>
+        <v>7551.7915309399996</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>24510270101</v>
+        <v>24510120500</v>
       </c>
       <c r="B51">
-        <v>73523</v>
+        <v>60750</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>19.8</v>
+        <v>9.6</v>
       </c>
       <c r="E51">
-        <v>58.9</v>
+        <v>48</v>
       </c>
       <c r="F51">
-        <v>4610.4971625600001</v>
+        <v>8608.65290069</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>24510261100</v>
+        <v>24510272005</v>
       </c>
       <c r="B52">
-        <v>121000</v>
+        <v>59500</v>
       </c>
       <c r="C52">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="D52">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="E52">
-        <v>39.299999999999997</v>
+        <v>42.9</v>
       </c>
       <c r="F52">
-        <v>22993.517972900001</v>
+        <v>9573.3988497400005</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>24510261000</v>
+        <v>24510260700</v>
       </c>
       <c r="B53">
-        <v>51908</v>
+        <v>59479</v>
       </c>
       <c r="C53">
-        <v>26.1</v>
+        <v>10.1</v>
       </c>
       <c r="D53">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
       <c r="E53">
-        <v>86.1</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F53">
-        <v>27178.544573499999</v>
+        <v>7704.8956770799996</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>24510260900</v>
+        <v>24510270600</v>
       </c>
       <c r="B54">
-        <v>104342</v>
+        <v>59375</v>
       </c>
       <c r="C54">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D54">
-        <v>8.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="E54">
-        <v>45.3</v>
+        <v>56.2</v>
       </c>
       <c r="F54">
-        <v>12474.129821299999</v>
+        <v>7671.5478034899998</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>24510260800</v>
+        <v>24510130700</v>
       </c>
       <c r="B55">
-        <v>41974</v>
+        <v>58815</v>
       </c>
       <c r="C55">
-        <v>29.1</v>
+        <v>20.5</v>
       </c>
       <c r="D55">
-        <v>28.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E55">
-        <v>87.3</v>
+        <v>38.1</v>
       </c>
       <c r="F55">
-        <v>21996.011301300001</v>
+        <v>12740.478994900001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>24510260700</v>
+        <v>24510260101</v>
       </c>
       <c r="B56">
-        <v>59479</v>
+        <v>58466</v>
       </c>
       <c r="C56">
-        <v>10.1</v>
+        <v>8.4</v>
       </c>
       <c r="D56">
-        <v>31.8</v>
+        <v>10.3</v>
       </c>
       <c r="E56">
-        <v>81.599999999999994</v>
+        <v>53.3</v>
       </c>
       <c r="F56">
-        <v>7704.8956770799996</v>
+        <v>7539.9715054600001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>24510260605</v>
+        <v>24510270902</v>
       </c>
       <c r="B57">
-        <v>42052</v>
+        <v>57356</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="D57">
-        <v>35.299999999999997</v>
+        <v>8.9</v>
       </c>
       <c r="E57">
-        <v>75.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F57">
-        <v>1238.7332112300001</v>
+        <v>10868.770004600001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>24510260604</v>
+        <v>24510250206</v>
       </c>
       <c r="B58">
-        <v>25563</v>
+        <v>57333</v>
       </c>
       <c r="C58">
-        <v>42.6</v>
+        <v>12.3</v>
       </c>
       <c r="D58">
-        <v>20.5</v>
+        <v>11.7</v>
       </c>
       <c r="E58">
-        <v>72.7</v>
+        <v>49</v>
       </c>
       <c r="F58">
-        <v>7533.6830196399997</v>
+        <v>2612.1773860100002</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>24510260501</v>
+        <v>24510280200</v>
       </c>
       <c r="B59">
-        <v>56038</v>
+        <v>57097</v>
       </c>
       <c r="C59">
-        <v>17.2</v>
+        <v>12.3</v>
       </c>
       <c r="D59">
-        <v>27.1</v>
+        <v>13.1</v>
       </c>
       <c r="E59">
-        <v>76.099999999999994</v>
+        <v>15.4</v>
       </c>
       <c r="F59">
-        <v>3919.0623191200002</v>
+        <v>5177.1467787600004</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>24510260404</v>
+        <v>24510270804</v>
       </c>
       <c r="B60">
-        <v>45143</v>
+        <v>56903</v>
       </c>
       <c r="C60">
-        <v>37.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D60">
-        <v>33.9</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>90.2</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F60">
-        <v>1156.02919032</v>
+        <v>10068.222621200001</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>24510260403</v>
+        <v>24510260501</v>
       </c>
       <c r="B61">
-        <v>32143</v>
+        <v>56038</v>
       </c>
       <c r="C61">
-        <v>32.5</v>
+        <v>17.2</v>
       </c>
       <c r="D61">
-        <v>37.1</v>
+        <v>27.1</v>
       </c>
       <c r="E61">
-        <v>17.399999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F61">
-        <v>2414.7182828700002</v>
+        <v>3919.0623191200002</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>24510260402</v>
+        <v>24510260102</v>
       </c>
       <c r="B62">
-        <v>41113</v>
+        <v>55931</v>
       </c>
       <c r="C62">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="D62">
-        <v>11.4</v>
+        <v>14.1</v>
       </c>
       <c r="E62">
-        <v>23.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F62">
-        <v>5068.5246152700001</v>
+        <v>8763.2269231499995</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>24510260401</v>
+        <v>24510271101</v>
       </c>
       <c r="B63">
-        <v>35750</v>
+        <v>55820</v>
       </c>
       <c r="C63">
-        <v>20.9</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>69.3</v>
+        <v>60.4</v>
       </c>
       <c r="F63">
-        <v>6245.40778839</v>
+        <v>5236.7545431299995</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>24510260303</v>
+        <v>24510060400</v>
       </c>
       <c r="B64">
-        <v>17125</v>
+        <v>55368</v>
       </c>
       <c r="C64">
-        <v>34.1</v>
+        <v>32.6</v>
       </c>
       <c r="D64">
-        <v>17.100000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="E64">
-        <v>58.5</v>
+        <v>49.4</v>
       </c>
       <c r="F64">
-        <v>1655.28393013</v>
+        <v>7117.0737576700003</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>24510260302</v>
+        <v>24510280102</v>
       </c>
       <c r="B65">
-        <v>33920</v>
+        <v>55243</v>
       </c>
       <c r="C65">
-        <v>40.6</v>
+        <v>13.5</v>
       </c>
       <c r="D65">
-        <v>14.2</v>
+        <v>10.5</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>12.3</v>
       </c>
       <c r="F65">
-        <v>17600.508317899999</v>
+        <v>4476.9155570000003</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>24510260301</v>
+        <v>24510110100</v>
       </c>
       <c r="B66">
-        <v>43951</v>
+        <v>55216</v>
       </c>
       <c r="C66">
-        <v>32.4</v>
+        <v>28.9</v>
       </c>
       <c r="D66">
-        <v>16.399999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="E66">
-        <v>18.8</v>
+        <v>64.2</v>
       </c>
       <c r="F66">
-        <v>21040.733631899999</v>
+        <v>26502.754707700002</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>24510260203</v>
+        <v>24510130803</v>
       </c>
       <c r="B67">
-        <v>39063</v>
+        <v>55128</v>
       </c>
       <c r="C67">
-        <v>22.1</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="E67">
-        <v>21.9</v>
+        <v>50.8</v>
       </c>
       <c r="F67">
-        <v>8229.6149819700004</v>
+        <v>10267.9071853</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>24510260202</v>
+        <v>24510150900</v>
       </c>
       <c r="B68">
-        <v>39283</v>
+        <v>54333</v>
       </c>
       <c r="C68">
-        <v>26.2</v>
+        <v>14.3</v>
       </c>
       <c r="D68">
-        <v>9.1</v>
+        <v>15.4</v>
       </c>
       <c r="E68">
-        <v>30.5</v>
+        <v>9.9</v>
       </c>
       <c r="F68">
-        <v>15086.524534300001</v>
+        <v>5985.8587666699996</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>24510260201</v>
+        <v>24510270805</v>
       </c>
       <c r="B69">
-        <v>36283</v>
+        <v>54139</v>
       </c>
       <c r="C69">
-        <v>31.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="E69">
-        <v>35.4</v>
+        <v>27.7</v>
       </c>
       <c r="F69">
-        <v>8100.1915799799999</v>
+        <v>10285.3819632</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>24510260102</v>
+        <v>24510250101</v>
       </c>
       <c r="B70">
-        <v>55931</v>
+        <v>54092</v>
       </c>
       <c r="C70">
-        <v>14.5</v>
+        <v>19.8</v>
       </c>
       <c r="D70">
-        <v>14.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E70">
-        <v>33.700000000000003</v>
+        <v>25.9</v>
       </c>
       <c r="F70">
-        <v>8763.2269231499995</v>
+        <v>9754.9164671399994</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>24510260101</v>
+        <v>24510270801</v>
       </c>
       <c r="B71">
-        <v>58466</v>
+        <v>53614</v>
       </c>
       <c r="C71">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="D71">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="E71">
-        <v>53.3</v>
+        <v>31.4</v>
       </c>
       <c r="F71">
-        <v>7539.9715054600001</v>
+        <v>12984.390525299999</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>24510250600</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
+        <v>24510270702</v>
+      </c>
+      <c r="B72">
+        <v>53532</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="E72">
-        <v>61.1</v>
+        <v>49.1</v>
       </c>
       <c r="F72">
-        <v>9.9783198323600004</v>
+        <v>7108.9036504400001</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>24510250500</v>
+        <v>24510120300</v>
       </c>
       <c r="B73">
-        <v>36684</v>
+        <v>52857</v>
       </c>
       <c r="C73">
-        <v>35.1</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>29.4</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>66.599999999999994</v>
+        <v>57.1</v>
       </c>
       <c r="F73">
-        <v>1642.1899870899999</v>
+        <v>22783.8357922</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>24510250402</v>
+        <v>24510270901</v>
       </c>
       <c r="B74">
-        <v>50526</v>
+        <v>52803</v>
       </c>
       <c r="C74">
-        <v>30.7</v>
+        <v>26.3</v>
       </c>
       <c r="D74">
-        <v>30.5</v>
+        <v>11.2</v>
       </c>
       <c r="E74">
-        <v>69.900000000000006</v>
+        <v>11.8</v>
       </c>
       <c r="F74">
-        <v>18133.666826100001</v>
+        <v>15455.4837723</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>24510250401</v>
+        <v>24510261000</v>
       </c>
       <c r="B75">
-        <v>39747</v>
+        <v>51908</v>
       </c>
       <c r="C75">
-        <v>27.1</v>
+        <v>26.1</v>
       </c>
       <c r="D75">
-        <v>16.7</v>
+        <v>32.5</v>
       </c>
       <c r="E75">
-        <v>70.5</v>
+        <v>86.1</v>
       </c>
       <c r="F75">
-        <v>8392.7904985599998</v>
+        <v>27178.544573499999</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>24510250303</v>
+        <v>24510151100</v>
       </c>
       <c r="B76">
-        <v>38750</v>
+        <v>51827</v>
       </c>
       <c r="C76">
-        <v>33.299999999999997</v>
+        <v>23.1</v>
       </c>
       <c r="D76">
-        <v>33.799999999999997</v>
+        <v>12.8</v>
       </c>
       <c r="E76">
-        <v>52.6</v>
+        <v>9.5</v>
       </c>
       <c r="F76">
-        <v>5804.48573855</v>
+        <v>10020.125632699999</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24510250301</v>
+        <v>24510271900</v>
       </c>
       <c r="B77">
-        <v>23452</v>
+        <v>51736</v>
       </c>
       <c r="C77">
-        <v>38.799999999999997</v>
+        <v>20.2</v>
       </c>
       <c r="D77">
-        <v>27.4</v>
+        <v>12.7</v>
       </c>
       <c r="E77">
-        <v>24.5</v>
+        <v>41.8</v>
       </c>
       <c r="F77">
-        <v>3334.1565818700001</v>
+        <v>6985.3553774100001</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>24510250207</v>
+        <v>24510270803</v>
       </c>
       <c r="B78">
-        <v>34081</v>
+        <v>51510</v>
       </c>
       <c r="C78">
-        <v>42.5</v>
+        <v>26.9</v>
       </c>
       <c r="D78">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>21.6</v>
+        <v>25</v>
       </c>
       <c r="F78">
-        <v>5812.7717237899997</v>
+        <v>7410.5601664699998</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>24510250206</v>
+        <v>24510250402</v>
       </c>
       <c r="B79">
-        <v>57333</v>
+        <v>50526</v>
       </c>
       <c r="C79">
-        <v>12.3</v>
+        <v>30.7</v>
       </c>
       <c r="D79">
-        <v>11.7</v>
+        <v>30.5</v>
       </c>
       <c r="E79">
-        <v>49</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F79">
-        <v>2612.1773860100002</v>
+        <v>18133.666826100001</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>24510250205</v>
+        <v>24510270802</v>
       </c>
       <c r="B80">
-        <v>41023</v>
+        <v>50354</v>
       </c>
       <c r="C80">
-        <v>24.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D80">
-        <v>22.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E80">
-        <v>75.900000000000006</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F80">
-        <v>5243.7933348200004</v>
+        <v>11756.3939522</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>24510250204</v>
+        <v>24510140100</v>
       </c>
       <c r="B81">
-        <v>15567</v>
+        <v>49688</v>
       </c>
       <c r="C81">
-        <v>67.3</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D81">
-        <v>24.2</v>
+        <v>9.4</v>
       </c>
       <c r="E81">
-        <v>5.2</v>
+        <v>63.4</v>
       </c>
       <c r="F81">
-        <v>12398.5572588</v>
+        <v>22503.732524999999</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>24510250203</v>
+        <v>24510060100</v>
       </c>
       <c r="B82">
-        <v>37639</v>
+        <v>48661</v>
       </c>
       <c r="C82">
-        <v>34</v>
+        <v>26.9</v>
       </c>
       <c r="D82">
-        <v>13.7</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>16.399999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="F82">
-        <v>5660.9066427300004</v>
+        <v>34957.144407100001</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>24510250103</v>
+        <v>24510270903</v>
       </c>
       <c r="B83">
-        <v>39412</v>
+        <v>48611</v>
       </c>
       <c r="C83">
-        <v>30.6</v>
+        <v>21.3</v>
       </c>
       <c r="D83">
-        <v>28.9</v>
+        <v>10.3</v>
       </c>
       <c r="E83">
-        <v>51.3</v>
+        <v>28</v>
       </c>
       <c r="F83">
-        <v>4054.0946355800002</v>
+        <v>10948.8356604</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>24510250102</v>
+        <v>24510280402</v>
       </c>
       <c r="B84">
-        <v>42922</v>
+        <v>48276</v>
       </c>
       <c r="C84">
-        <v>17.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D84">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E84">
-        <v>26.8</v>
+        <v>10.6</v>
       </c>
       <c r="F84">
-        <v>10211.959573300001</v>
+        <v>7308.6924219900002</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>24510250101</v>
+        <v>24510280101</v>
       </c>
       <c r="B85">
-        <v>54092</v>
+        <v>47440</v>
       </c>
       <c r="C85">
-        <v>19.8</v>
+        <v>27.6</v>
       </c>
       <c r="D85">
-        <v>19.899999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="E85">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="F85">
-        <v>9754.9164671399994</v>
+        <v>5933.5282973800004</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>24510240400</v>
+        <v>24510150701</v>
       </c>
       <c r="B86">
-        <v>103250</v>
+        <v>47109</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>28.9</v>
       </c>
       <c r="D86">
-        <v>10.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E86">
-        <v>23.3</v>
+        <v>9.4</v>
       </c>
       <c r="F86">
-        <v>5524.0428000499996</v>
+        <v>4503.3323597400004</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>24510240300</v>
+        <v>24510130200</v>
       </c>
       <c r="B87">
-        <v>116406</v>
+        <v>46690</v>
       </c>
       <c r="C87">
-        <v>9.6999999999999993</v>
+        <v>24.4</v>
       </c>
       <c r="D87">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="E87">
-        <v>24.4</v>
+        <v>28.6</v>
       </c>
       <c r="F87">
-        <v>27650.781350900001</v>
+        <v>20520.5945426</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>24510240200</v>
+        <v>24510280401</v>
       </c>
       <c r="B88">
-        <v>136913</v>
+        <v>46139</v>
       </c>
       <c r="C88">
-        <v>4.0999999999999996</v>
+        <v>21.3</v>
       </c>
       <c r="D88">
-        <v>1.2</v>
+        <v>12.9</v>
       </c>
       <c r="E88">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="F88">
-        <v>15369.859729</v>
+        <v>5619.12868041</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>24510240100</v>
+        <v>24510090100</v>
       </c>
       <c r="B89">
-        <v>129508</v>
+        <v>45962</v>
       </c>
       <c r="C89">
-        <v>4.8</v>
+        <v>35</v>
       </c>
       <c r="D89">
-        <v>6.4</v>
+        <v>17.5</v>
       </c>
       <c r="E89">
-        <v>20.3</v>
+        <v>26</v>
       </c>
       <c r="F89">
-        <v>3713.6409917699998</v>
+        <v>16730.950881600002</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>24510230300</v>
+        <v>24510110200</v>
       </c>
       <c r="B90">
-        <v>106806</v>
+        <v>45406</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>45.4</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>9.1</v>
       </c>
       <c r="E90">
-        <v>28.8</v>
+        <v>64.7</v>
       </c>
       <c r="F90">
-        <v>2245.23677761</v>
+        <v>18123.9949973</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>24510230200</v>
+        <v>24510090600</v>
       </c>
       <c r="B91">
-        <v>109286</v>
+        <v>45306</v>
       </c>
       <c r="C91">
-        <v>23.5</v>
+        <v>34.4</v>
       </c>
       <c r="D91">
-        <v>11.8</v>
+        <v>33.1</v>
       </c>
       <c r="E91">
-        <v>27.7</v>
+        <v>12.8</v>
       </c>
       <c r="F91">
-        <v>25854.064992299998</v>
+        <v>22053.6756126</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>24510230100</v>
+        <v>24510260404</v>
       </c>
       <c r="B92">
-        <v>71287</v>
+        <v>45143</v>
       </c>
       <c r="C92">
-        <v>13.7</v>
+        <v>37.4</v>
       </c>
       <c r="D92">
-        <v>6.5</v>
+        <v>33.9</v>
       </c>
       <c r="E92">
-        <v>57.9</v>
+        <v>90.2</v>
       </c>
       <c r="F92">
-        <v>15039.273063299999</v>
+        <v>1156.02919032</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>24510220100</v>
+        <v>24510260301</v>
       </c>
       <c r="B93">
-        <v>75652</v>
+        <v>43951</v>
       </c>
       <c r="C93">
-        <v>25.8</v>
+        <v>32.4</v>
       </c>
       <c r="D93">
-        <v>6.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E93">
-        <v>46.4</v>
+        <v>18.8</v>
       </c>
       <c r="F93">
-        <v>9022.2361696400003</v>
+        <v>21040.733631899999</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>24510210200</v>
+        <v>24510160802</v>
       </c>
       <c r="B94">
-        <v>41037</v>
+        <v>43464</v>
       </c>
       <c r="C94">
-        <v>38.200000000000003</v>
+        <v>26.9</v>
       </c>
       <c r="D94">
-        <v>22.9</v>
+        <v>10.3</v>
       </c>
       <c r="E94">
-        <v>64.3</v>
+        <v>6.9</v>
       </c>
       <c r="F94">
-        <v>3725.2195041099999</v>
+        <v>6434.6392798300003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>24510210100</v>
+        <v>24510280302</v>
       </c>
       <c r="B95">
-        <v>63558</v>
+        <v>43438</v>
       </c>
       <c r="C95">
-        <v>17.5</v>
+        <v>28.3</v>
       </c>
       <c r="D95">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="E95">
-        <v>59.7</v>
+        <v>14</v>
       </c>
       <c r="F95">
-        <v>4275.5630494999996</v>
+        <v>6101.9305845199997</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>24510200800</v>
+        <v>24510160801</v>
       </c>
       <c r="B96">
-        <v>40789</v>
+        <v>43211</v>
       </c>
       <c r="C96">
-        <v>29.4</v>
+        <v>25.9</v>
       </c>
       <c r="D96">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="E96">
-        <v>27.2</v>
+        <v>7.9</v>
       </c>
       <c r="F96">
-        <v>5538.1628443199997</v>
+        <v>21810.8090142</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>24510200702</v>
+        <v>24510250102</v>
       </c>
       <c r="B97">
-        <v>42179</v>
+        <v>42922</v>
       </c>
       <c r="C97">
-        <v>31.2</v>
+        <v>17.7</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>8.9</v>
       </c>
       <c r="E97">
-        <v>12.6</v>
+        <v>26.8</v>
       </c>
       <c r="F97">
-        <v>12816.825453900001</v>
+        <v>10211.959573300001</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>24510200701</v>
+        <v>24510150200</v>
       </c>
       <c r="B98">
-        <v>36164</v>
+        <v>42917</v>
       </c>
       <c r="C98">
-        <v>46.7</v>
+        <v>37.9</v>
       </c>
       <c r="D98">
-        <v>16.5</v>
+        <v>26.8</v>
       </c>
       <c r="E98">
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="F98">
-        <v>9929.9165878399999</v>
+        <v>16656.381140500001</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>24510200600</v>
+        <v>24510272004</v>
       </c>
       <c r="B99">
-        <v>31991</v>
+        <v>42800</v>
       </c>
       <c r="C99">
-        <v>22.2</v>
+        <v>15.9</v>
       </c>
       <c r="D99">
-        <v>19.899999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="E99">
-        <v>47</v>
+        <v>44.1</v>
       </c>
       <c r="F99">
-        <v>3900.7347126599998</v>
+        <v>13839.4651273</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>24510200500</v>
+        <v>24510090500</v>
       </c>
       <c r="B100">
-        <v>34236</v>
+        <v>42296</v>
       </c>
       <c r="C100">
-        <v>60.5</v>
+        <v>26</v>
       </c>
       <c r="D100">
-        <v>43.5</v>
+        <v>10.3</v>
       </c>
       <c r="E100">
-        <v>61.1</v>
+        <v>34.9</v>
       </c>
       <c r="F100">
-        <v>12128.4644484</v>
+        <v>6859.4579491499999</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>24510200400</v>
+        <v>24510090300</v>
       </c>
       <c r="B101">
-        <v>30757</v>
+        <v>42206</v>
       </c>
       <c r="C101">
-        <v>42.4</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D101">
-        <v>25.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E101">
-        <v>9.9</v>
+        <v>42</v>
       </c>
       <c r="F101">
-        <v>11291.399572599999</v>
+        <v>13702.158179599999</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>24510200300</v>
+        <v>24510200702</v>
       </c>
       <c r="B102">
-        <v>23542</v>
+        <v>42179</v>
       </c>
       <c r="C102">
-        <v>52.9</v>
+        <v>31.2</v>
       </c>
       <c r="D102">
-        <v>36.6</v>
+        <v>22</v>
       </c>
       <c r="E102">
-        <v>50.3</v>
+        <v>12.6</v>
       </c>
       <c r="F102">
-        <v>19926.199261999998</v>
+        <v>12816.825453900001</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>24510200200</v>
+        <v>24510260605</v>
       </c>
       <c r="B103">
-        <v>27923</v>
+        <v>42052</v>
       </c>
       <c r="C103">
-        <v>54.8</v>
+        <v>30</v>
       </c>
       <c r="D103">
-        <v>25.9</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E103">
-        <v>6.9</v>
+        <v>75.3</v>
       </c>
       <c r="F103">
-        <v>8284.5024833999996</v>
+        <v>1238.7332112300001</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>24510200100</v>
+        <v>24510260800</v>
       </c>
       <c r="B104">
-        <v>30875</v>
+        <v>41974</v>
       </c>
       <c r="C104">
-        <v>42.7</v>
+        <v>29.1</v>
       </c>
       <c r="D104">
-        <v>21.2</v>
+        <v>28.3</v>
       </c>
       <c r="E104">
-        <v>14.1</v>
+        <v>87.3</v>
       </c>
       <c r="F104">
-        <v>18034.388433</v>
+        <v>21996.011301300001</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>24510190300</v>
+        <v>24510271700</v>
       </c>
       <c r="B105">
-        <v>23750</v>
+        <v>41891</v>
       </c>
       <c r="C105">
-        <v>63</v>
+        <v>34.6</v>
       </c>
       <c r="D105">
-        <v>33.799999999999997</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E105">
-        <v>60.8</v>
+        <v>15.8</v>
       </c>
       <c r="F105">
-        <v>17817.279867699999</v>
+        <v>8435.8943720900006</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24510190200</v>
+        <v>24510150702</v>
       </c>
       <c r="B106">
-        <v>32500</v>
+        <v>41471</v>
       </c>
       <c r="C106">
-        <v>49.1</v>
+        <v>26.4</v>
       </c>
       <c r="D106">
-        <v>28.6</v>
+        <v>12.1</v>
       </c>
       <c r="E106">
-        <v>67.900000000000006</v>
+        <v>4.8</v>
       </c>
       <c r="F106">
-        <v>17630.853994500001</v>
+        <v>15605.9804181</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24510190100</v>
+        <v>24510271001</v>
       </c>
       <c r="B107">
-        <v>21630</v>
+        <v>41192</v>
       </c>
       <c r="C107">
-        <v>54.8</v>
+        <v>34.9</v>
       </c>
       <c r="D107">
-        <v>31.7</v>
+        <v>19.7</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>12810.978907500001</v>
+        <v>11815.517507299999</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24510180300</v>
+        <v>24510260402</v>
       </c>
       <c r="B108">
-        <v>37273</v>
+        <v>41113</v>
       </c>
       <c r="C108">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="E108">
-        <v>53.5</v>
+        <v>23.7</v>
       </c>
       <c r="F108">
-        <v>17076.661597599999</v>
+        <v>5068.5246152700001</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24510180200</v>
+        <v>24510210200</v>
       </c>
       <c r="B109">
-        <v>20938</v>
+        <v>41037</v>
       </c>
       <c r="C109">
-        <v>51.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D109">
-        <v>33.9</v>
+        <v>22.9</v>
       </c>
       <c r="E109">
-        <v>14.1</v>
+        <v>64.3</v>
       </c>
       <c r="F109">
-        <v>10781.2844847</v>
+        <v>3725.2195041099999</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>24510180100</v>
+        <v>24510250205</v>
       </c>
       <c r="B110">
-        <v>14583</v>
+        <v>41023</v>
       </c>
       <c r="C110">
-        <v>63.5</v>
+        <v>24.5</v>
       </c>
       <c r="D110">
-        <v>33.5</v>
+        <v>22.2</v>
       </c>
       <c r="E110">
-        <v>8.5</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F110">
-        <v>16680.567139300001</v>
+        <v>5243.7933348200004</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24510170300</v>
+        <v>24510200800</v>
       </c>
       <c r="B111">
-        <v>20880</v>
+        <v>40789</v>
       </c>
       <c r="C111">
-        <v>43.6</v>
+        <v>29.4</v>
       </c>
       <c r="D111">
-        <v>23</v>
+        <v>15.8</v>
       </c>
       <c r="E111">
-        <v>12.7</v>
+        <v>27.2</v>
       </c>
       <c r="F111">
-        <v>17030.826558299999</v>
+        <v>5538.1628443199997</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24510170200</v>
+        <v>24510151000</v>
       </c>
       <c r="B112">
-        <v>13643</v>
+        <v>40366</v>
       </c>
       <c r="C112">
-        <v>74.900000000000006</v>
+        <v>41.7</v>
       </c>
       <c r="D112">
-        <v>27.3</v>
+        <v>18.8</v>
       </c>
       <c r="E112">
-        <v>19</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F112">
-        <v>16489.278037</v>
+        <v>9096.9362830600003</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24510170100</v>
+        <v>24510160600</v>
       </c>
       <c r="B113">
-        <v>30702</v>
+        <v>40038</v>
       </c>
       <c r="C113">
-        <v>50.1</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D113">
-        <v>17.399999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="E113">
-        <v>43.8</v>
+        <v>8.9</v>
       </c>
       <c r="F113">
-        <v>14808.6522463</v>
+        <v>16263.4408602</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24510160802</v>
+        <v>24510272007</v>
       </c>
       <c r="B114">
-        <v>43464</v>
+        <v>39777</v>
       </c>
       <c r="C114">
-        <v>26.9</v>
+        <v>19.7</v>
       </c>
       <c r="D114">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="E114">
-        <v>6.9</v>
+        <v>75.8</v>
       </c>
       <c r="F114">
-        <v>6434.6392798300003</v>
+        <v>14068.943299</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24510160801</v>
+        <v>24510130805</v>
       </c>
       <c r="B115">
-        <v>43211</v>
+        <v>39750</v>
       </c>
       <c r="C115">
-        <v>25.9</v>
+        <v>33.5</v>
       </c>
       <c r="D115">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="E115">
-        <v>7.9</v>
+        <v>41</v>
       </c>
       <c r="F115">
-        <v>21810.8090142</v>
+        <v>1553.43174363</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24510160700</v>
+        <v>24510250401</v>
       </c>
       <c r="B116">
-        <v>36346</v>
+        <v>39747</v>
       </c>
       <c r="C116">
-        <v>36.9</v>
+        <v>27.1</v>
       </c>
       <c r="D116">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>70.5</v>
       </c>
       <c r="F116">
-        <v>15049.5845618</v>
+        <v>8392.7904985599998</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24510160600</v>
+        <v>24510070100</v>
       </c>
       <c r="B117">
-        <v>40038</v>
+        <v>39602</v>
       </c>
       <c r="C117">
-        <v>37.700000000000003</v>
+        <v>54.2</v>
       </c>
       <c r="D117">
-        <v>14.6</v>
+        <v>30.8</v>
       </c>
       <c r="E117">
-        <v>8.9</v>
+        <v>28.9</v>
       </c>
       <c r="F117">
-        <v>16263.4408602</v>
+        <v>26352.375011100001</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24510160500</v>
+        <v>24510250103</v>
       </c>
       <c r="B118">
-        <v>35705</v>
+        <v>39412</v>
       </c>
       <c r="C118">
-        <v>37.9</v>
+        <v>30.6</v>
       </c>
       <c r="D118">
-        <v>20.7</v>
+        <v>28.9</v>
       </c>
       <c r="E118">
-        <v>7.9</v>
+        <v>51.3</v>
       </c>
       <c r="F118">
-        <v>10626.846242400001</v>
+        <v>4054.0946355800002</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24510160400</v>
+        <v>24510260202</v>
       </c>
       <c r="B119">
-        <v>26552</v>
+        <v>39283</v>
       </c>
       <c r="C119">
-        <v>46.1</v>
+        <v>26.2</v>
       </c>
       <c r="D119">
-        <v>17.8</v>
+        <v>9.1</v>
       </c>
       <c r="E119">
-        <v>6.3</v>
+        <v>30.5</v>
       </c>
       <c r="F119">
-        <v>16311.369509</v>
+        <v>15086.524534300001</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24510160300</v>
+        <v>24510260203</v>
       </c>
       <c r="B120">
-        <v>18093</v>
+        <v>39063</v>
       </c>
       <c r="C120">
-        <v>68.099999999999994</v>
+        <v>22.1</v>
       </c>
       <c r="D120">
-        <v>38.1</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>7.9</v>
+        <v>21.9</v>
       </c>
       <c r="F120">
-        <v>15785.2077001</v>
+        <v>8229.6149819700004</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24510160200</v>
+        <v>24510250303</v>
       </c>
       <c r="B121">
-        <v>26792</v>
+        <v>38750</v>
       </c>
       <c r="C121">
-        <v>51.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D121">
-        <v>21.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E121">
-        <v>7.6</v>
+        <v>52.6</v>
       </c>
       <c r="F121">
-        <v>17414.4855283</v>
+        <v>5804.48573855</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24510160100</v>
+        <v>24510120400</v>
       </c>
       <c r="B122">
-        <v>26557</v>
+        <v>38507</v>
       </c>
       <c r="C122">
-        <v>67.400000000000006</v>
+        <v>37.6</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="E122">
-        <v>11.3</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F122">
-        <v>16164.6246531</v>
+        <v>12319.384499899999</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>24510151300</v>
+        <v>24510080800</v>
       </c>
       <c r="B123">
-        <v>29816</v>
+        <v>38304</v>
       </c>
       <c r="C123">
-        <v>44.6</v>
+        <v>41.6</v>
       </c>
       <c r="D123">
-        <v>23.9</v>
+        <v>20.6</v>
       </c>
       <c r="E123">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="F123">
-        <v>12696.550761099999</v>
+        <v>10132.088903</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>24510151200</v>
+        <v>24510150300</v>
       </c>
       <c r="B124">
-        <v>21363</v>
+        <v>38194</v>
       </c>
       <c r="C124">
-        <v>67.400000000000006</v>
+        <v>23.6</v>
       </c>
       <c r="D124">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="E124">
-        <v>11.4</v>
+        <v>6.2</v>
       </c>
       <c r="F124">
-        <v>14045.3182273</v>
+        <v>16079.4237882</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24510151100</v>
+        <v>24510140300</v>
       </c>
       <c r="B125">
-        <v>51827</v>
+        <v>38194</v>
       </c>
       <c r="C125">
-        <v>23.1</v>
+        <v>43.6</v>
       </c>
       <c r="D125">
-        <v>12.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E125">
-        <v>9.5</v>
+        <v>18.2</v>
       </c>
       <c r="F125">
-        <v>10020.125632699999</v>
+        <v>15465.694398400001</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24510151000</v>
+        <v>24510250203</v>
       </c>
       <c r="B126">
-        <v>40366</v>
+        <v>37639</v>
       </c>
       <c r="C126">
-        <v>41.7</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>18.8</v>
+        <v>13.7</v>
       </c>
       <c r="E126">
-        <v>8.8000000000000007</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F126">
-        <v>9096.9362830600003</v>
+        <v>5660.9066427300004</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24510150900</v>
+        <v>24510080301</v>
       </c>
       <c r="B127">
-        <v>54333</v>
+        <v>37574</v>
       </c>
       <c r="C127">
-        <v>14.3</v>
+        <v>42.5</v>
       </c>
       <c r="D127">
-        <v>15.4</v>
+        <v>27.5</v>
       </c>
       <c r="E127">
-        <v>9.9</v>
+        <v>7.8</v>
       </c>
       <c r="F127">
-        <v>5985.8587666699996</v>
+        <v>20094.494262799999</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24510150800</v>
+        <v>24510280404</v>
       </c>
       <c r="B128">
-        <v>36853</v>
+        <v>37292</v>
       </c>
       <c r="C128">
-        <v>33</v>
+        <v>38.9</v>
       </c>
       <c r="D128">
-        <v>9.9</v>
+        <v>19.8</v>
       </c>
       <c r="E128">
-        <v>10.8</v>
+        <v>38.6</v>
       </c>
       <c r="F128">
-        <v>10031.1171287</v>
+        <v>6901.0654490099996</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24510150702</v>
+        <v>24510180300</v>
       </c>
       <c r="B129">
-        <v>41471</v>
+        <v>37273</v>
       </c>
       <c r="C129">
-        <v>26.4</v>
+        <v>30.1</v>
       </c>
       <c r="D129">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>4.8</v>
+        <v>53.5</v>
       </c>
       <c r="F129">
-        <v>15605.9804181</v>
+        <v>17076.661597599999</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24510150701</v>
+        <v>24510271002</v>
       </c>
       <c r="B130">
-        <v>47109</v>
+        <v>37232</v>
       </c>
       <c r="C130">
-        <v>28.9</v>
+        <v>19.7</v>
       </c>
       <c r="D130">
-        <v>9.1999999999999993</v>
+        <v>13.7</v>
       </c>
       <c r="E130">
-        <v>9.4</v>
+        <v>13.4</v>
       </c>
       <c r="F130">
-        <v>4503.3323597400004</v>
+        <v>11198.7424452</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24510150600</v>
+        <v>24510280301</v>
       </c>
       <c r="B131">
-        <v>30529</v>
+        <v>37163</v>
       </c>
       <c r="C131">
-        <v>44.6</v>
+        <v>34.1</v>
       </c>
       <c r="D131">
-        <v>20.7</v>
+        <v>8.9</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>23.3</v>
       </c>
       <c r="F131">
-        <v>9214.8972371500004</v>
+        <v>3282.2967273099998</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24510150500</v>
+        <v>24510270701</v>
       </c>
       <c r="B132">
-        <v>33670</v>
+        <v>36994</v>
       </c>
       <c r="C132">
-        <v>41.1</v>
+        <v>30</v>
       </c>
       <c r="D132">
-        <v>24.4</v>
+        <v>5.6</v>
       </c>
       <c r="E132">
-        <v>8.3000000000000007</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F132">
-        <v>4166.21665407</v>
+        <v>17237.237237199999</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24510150400</v>
+        <v>24510150800</v>
       </c>
       <c r="B133">
-        <v>35479</v>
+        <v>36853</v>
       </c>
       <c r="C133">
-        <v>45.6</v>
+        <v>33</v>
       </c>
       <c r="D133">
-        <v>25.5</v>
+        <v>9.9</v>
       </c>
       <c r="E133">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F133">
-        <v>11826.7276423</v>
+        <v>10031.1171287</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24510150300</v>
+        <v>24510250500</v>
       </c>
       <c r="B134">
-        <v>38194</v>
+        <v>36684</v>
       </c>
       <c r="C134">
-        <v>23.6</v>
+        <v>35.1</v>
       </c>
       <c r="D134">
-        <v>21.7</v>
+        <v>29.4</v>
       </c>
       <c r="E134">
-        <v>6.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="F134">
-        <v>16079.4237882</v>
+        <v>1642.1899870899999</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24510150200</v>
+        <v>24510120202</v>
       </c>
       <c r="B135">
-        <v>42917</v>
+        <v>36435</v>
       </c>
       <c r="C135">
-        <v>37.9</v>
+        <v>41.1</v>
       </c>
       <c r="D135">
-        <v>26.8</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>7.9</v>
+        <v>65.3</v>
       </c>
       <c r="F135">
-        <v>16656.381140500001</v>
+        <v>16406.579502299999</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>24510150100</v>
+        <v>24510160700</v>
       </c>
       <c r="B136">
-        <v>17346</v>
+        <v>36346</v>
       </c>
       <c r="C136">
-        <v>71.3</v>
+        <v>36.9</v>
       </c>
       <c r="D136">
-        <v>27.2</v>
+        <v>16.2</v>
       </c>
       <c r="E136">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>22517.531556800001</v>
+        <v>15049.5845618</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>24510140300</v>
+        <v>24510260201</v>
       </c>
       <c r="B137">
-        <v>38194</v>
+        <v>36283</v>
       </c>
       <c r="C137">
-        <v>43.6</v>
+        <v>31.5</v>
       </c>
       <c r="D137">
-        <v>18.399999999999999</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>18.2</v>
+        <v>35.4</v>
       </c>
       <c r="F137">
-        <v>15465.694398400001</v>
+        <v>8100.1915799799999</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>24510140200</v>
+        <v>24510200701</v>
       </c>
       <c r="B138">
-        <v>28000</v>
+        <v>36164</v>
       </c>
       <c r="C138">
-        <v>50.5</v>
+        <v>46.7</v>
       </c>
       <c r="D138">
-        <v>30.4</v>
+        <v>16.5</v>
       </c>
       <c r="E138">
-        <v>14.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F138">
-        <v>18697.162330399999</v>
+        <v>9929.9165878399999</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>24510140100</v>
+        <v>24510130300</v>
       </c>
       <c r="B139">
-        <v>49688</v>
+        <v>35952</v>
       </c>
       <c r="C139">
-        <v>40.200000000000003</v>
+        <v>44.5</v>
       </c>
       <c r="D139">
-        <v>9.4</v>
+        <v>18.2</v>
       </c>
       <c r="E139">
-        <v>63.4</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>22503.732524999999</v>
+        <v>16401.619199100001</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>24510130806</v>
+        <v>24510090800</v>
       </c>
       <c r="B140">
-        <v>87188</v>
+        <v>35808</v>
       </c>
       <c r="C140">
-        <v>14.3</v>
+        <v>44.2</v>
       </c>
       <c r="D140">
-        <v>11.4</v>
+        <v>29.9</v>
       </c>
       <c r="E140">
-        <v>55.4</v>
+        <v>8.4</v>
       </c>
       <c r="F140">
-        <v>2642.4152894499998</v>
+        <v>9420.6008583700004</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>24510130805</v>
+        <v>24510260401</v>
       </c>
       <c r="B141">
-        <v>39750</v>
+        <v>35750</v>
       </c>
       <c r="C141">
-        <v>33.5</v>
+        <v>20.9</v>
       </c>
       <c r="D141">
-        <v>12.5</v>
+        <v>14.8</v>
       </c>
       <c r="E141">
-        <v>41</v>
+        <v>69.3</v>
       </c>
       <c r="F141">
-        <v>1553.43174363</v>
+        <v>6245.40778839</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>24510130804</v>
+        <v>24510160500</v>
       </c>
       <c r="B142">
-        <v>67019</v>
+        <v>35705</v>
       </c>
       <c r="C142">
-        <v>10.9</v>
+        <v>37.9</v>
       </c>
       <c r="D142">
-        <v>14.9</v>
+        <v>20.7</v>
       </c>
       <c r="E142">
-        <v>34.1</v>
+        <v>7.9</v>
       </c>
       <c r="F142">
-        <v>6846.9162609900004</v>
+        <v>10626.846242400001</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>24510130803</v>
+        <v>24510150400</v>
       </c>
       <c r="B143">
-        <v>55128</v>
+        <v>35479</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>45.6</v>
       </c>
       <c r="D143">
-        <v>10.5</v>
+        <v>25.5</v>
       </c>
       <c r="E143">
-        <v>50.8</v>
+        <v>11.1</v>
       </c>
       <c r="F143">
-        <v>10267.9071853</v>
+        <v>11826.7276423</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>24510130700</v>
+        <v>24510080700</v>
       </c>
       <c r="B144">
-        <v>58815</v>
+        <v>35282</v>
       </c>
       <c r="C144">
-        <v>20.5</v>
+        <v>46.3</v>
       </c>
       <c r="D144">
-        <v>9.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E144">
-        <v>38.1</v>
+        <v>13.7</v>
       </c>
       <c r="F144">
-        <v>12740.478994900001</v>
+        <v>9856.9570871300002</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>24510130600</v>
+        <v>24510080600</v>
       </c>
       <c r="B145">
-        <v>95500</v>
+        <v>34688</v>
       </c>
       <c r="C145">
-        <v>15.6</v>
+        <v>51.5</v>
       </c>
       <c r="D145">
-        <v>9.1999999999999993</v>
+        <v>22.2</v>
       </c>
       <c r="E145">
-        <v>29.5</v>
+        <v>7.7</v>
       </c>
       <c r="F145">
-        <v>10632.7462492</v>
+        <v>19009.855251000001</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>24510130400</v>
+        <v>24510040200</v>
       </c>
       <c r="B146">
-        <v>28750</v>
+        <v>34375</v>
       </c>
       <c r="C146">
-        <v>39.799999999999997</v>
+        <v>50.4</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="E146">
-        <v>13.5</v>
+        <v>70.7</v>
       </c>
       <c r="F146">
-        <v>1982.08143191</v>
+        <v>4971.5234931200002</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>24510130300</v>
+        <v>24510200500</v>
       </c>
       <c r="B147">
-        <v>35952</v>
+        <v>34236</v>
       </c>
       <c r="C147">
-        <v>44.5</v>
+        <v>60.5</v>
       </c>
       <c r="D147">
-        <v>18.2</v>
+        <v>43.5</v>
       </c>
       <c r="E147">
-        <v>11</v>
+        <v>61.1</v>
       </c>
       <c r="F147">
-        <v>16401.619199100001</v>
+        <v>12128.4644484</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>24510130200</v>
+        <v>24510250207</v>
       </c>
       <c r="B148">
-        <v>46690</v>
+        <v>34081</v>
       </c>
       <c r="C148">
-        <v>24.4</v>
+        <v>42.5</v>
       </c>
       <c r="D148">
-        <v>12.4</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>28.6</v>
+        <v>21.6</v>
       </c>
       <c r="F148">
-        <v>20520.5945426</v>
+        <v>5812.7717237899997</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>24510130100</v>
+        <v>24510260302</v>
       </c>
       <c r="B149">
-        <v>24639</v>
+        <v>33920</v>
       </c>
       <c r="C149">
-        <v>51.9</v>
+        <v>40.6</v>
       </c>
       <c r="D149">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="E149">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F149">
-        <v>22352.437981200001</v>
+        <v>17600.508317899999</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>24510120700</v>
+        <v>24510080102</v>
       </c>
       <c r="B150">
-        <v>65068</v>
+        <v>33711</v>
       </c>
       <c r="C150">
-        <v>24.8</v>
+        <v>49.7</v>
       </c>
       <c r="D150">
-        <v>12.9</v>
+        <v>22.3</v>
       </c>
       <c r="E150">
-        <v>66.2</v>
+        <v>10.7</v>
       </c>
       <c r="F150">
-        <v>6140.4161396700001</v>
+        <v>17763.297684000001</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>24510120600</v>
+        <v>24510150500</v>
       </c>
       <c r="B151">
-        <v>29036</v>
+        <v>33670</v>
       </c>
       <c r="C151">
-        <v>45.5</v>
+        <v>41.1</v>
       </c>
       <c r="D151">
-        <v>22.3</v>
+        <v>24.4</v>
       </c>
       <c r="E151">
-        <v>66</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F151">
-        <v>16806.333864600001</v>
+        <v>4166.21665407</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>24510120500</v>
+        <v>24510272006</v>
       </c>
       <c r="B152">
-        <v>60750</v>
+        <v>32500</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>41.1</v>
       </c>
       <c r="D152">
-        <v>9.6</v>
+        <v>6.3</v>
       </c>
       <c r="E152">
-        <v>48</v>
+        <v>54.1</v>
       </c>
       <c r="F152">
-        <v>8608.65290069</v>
+        <v>12467.934076</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>24510120400</v>
+        <v>24510190200</v>
       </c>
       <c r="B153">
-        <v>38507</v>
+        <v>32500</v>
       </c>
       <c r="C153">
-        <v>37.6</v>
+        <v>49.1</v>
       </c>
       <c r="D153">
-        <v>13.5</v>
+        <v>28.6</v>
       </c>
       <c r="E153">
-        <v>39.700000000000003</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="F153">
-        <v>12319.384499899999</v>
+        <v>17630.853994500001</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>24510120300</v>
+        <v>24510080302</v>
       </c>
       <c r="B154">
-        <v>52857</v>
+        <v>32167</v>
       </c>
       <c r="C154">
-        <v>28</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>19.7</v>
       </c>
       <c r="E154">
-        <v>57.1</v>
+        <v>6.9</v>
       </c>
       <c r="F154">
-        <v>22783.8357922</v>
+        <v>17307.012374800001</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>24510120202</v>
+        <v>24510260403</v>
       </c>
       <c r="B155">
-        <v>36435</v>
+        <v>32143</v>
       </c>
       <c r="C155">
-        <v>41.1</v>
+        <v>32.5</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>37.1</v>
       </c>
       <c r="E155">
-        <v>65.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F155">
-        <v>16406.579502299999</v>
+        <v>2414.7182828700002</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>24510120201</v>
+        <v>24510070200</v>
       </c>
       <c r="B156">
-        <v>82917</v>
+        <v>32000</v>
       </c>
       <c r="C156">
-        <v>16.5</v>
+        <v>54.9</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E156">
-        <v>55.7</v>
+        <v>22.9</v>
       </c>
       <c r="F156">
-        <v>15129.865297300001</v>
+        <v>31482.560559400001</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>24510120100</v>
+        <v>24510200600</v>
       </c>
       <c r="B157">
-        <v>65313</v>
+        <v>31991</v>
       </c>
       <c r="C157">
-        <v>32.200000000000003</v>
+        <v>22.2</v>
       </c>
       <c r="D157">
-        <v>1.4</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E157">
-        <v>53.5</v>
+        <v>47</v>
       </c>
       <c r="F157">
-        <v>11946.626761400001</v>
+        <v>3900.7347126599998</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>24510110200</v>
+        <v>24510200100</v>
       </c>
       <c r="B158">
-        <v>45406</v>
+        <v>30875</v>
       </c>
       <c r="C158">
-        <v>45.4</v>
+        <v>42.7</v>
       </c>
       <c r="D158">
-        <v>9.1</v>
+        <v>21.2</v>
       </c>
       <c r="E158">
-        <v>64.7</v>
+        <v>14.1</v>
       </c>
       <c r="F158">
-        <v>18123.9949973</v>
+        <v>18034.388433</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>24510110100</v>
+        <v>24510200400</v>
       </c>
       <c r="B159">
-        <v>55216</v>
+        <v>30757</v>
       </c>
       <c r="C159">
-        <v>28.9</v>
+        <v>42.4</v>
       </c>
       <c r="D159">
-        <v>1.7</v>
+        <v>25.8</v>
       </c>
       <c r="E159">
-        <v>64.2</v>
+        <v>9.9</v>
       </c>
       <c r="F159">
-        <v>26502.754707700002</v>
+        <v>11291.399572599999</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>24510100300</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1</v>
+        <v>24510170100</v>
+      </c>
+      <c r="B160">
+        <v>30702</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="D160">
-        <v>39.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E160">
-        <v>28.8</v>
+        <v>43.8</v>
       </c>
       <c r="F160">
-        <v>86892.317902800001</v>
+        <v>14808.6522463</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>24510100200</v>
+        <v>24510150600</v>
       </c>
       <c r="B161">
-        <v>13074</v>
+        <v>30529</v>
       </c>
       <c r="C161">
-        <v>76.900000000000006</v>
+        <v>44.6</v>
       </c>
       <c r="D161">
-        <v>38.200000000000003</v>
+        <v>20.7</v>
       </c>
       <c r="E161">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>23506.923795800001</v>
+        <v>9214.8972371500004</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>24510100100</v>
+        <v>24510271801</v>
       </c>
       <c r="B162">
-        <v>25215</v>
+        <v>30462</v>
       </c>
       <c r="C162">
-        <v>58.6</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D162">
         <v>20.2</v>
       </c>
       <c r="E162">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="F162">
-        <v>12132.625691900001</v>
+        <v>14738.6500789</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>24510090900</v>
+        <v>24510090400</v>
       </c>
       <c r="B163">
-        <v>23750</v>
+        <v>30125</v>
       </c>
       <c r="C163">
-        <v>52.9</v>
+        <v>44.6</v>
       </c>
       <c r="D163">
-        <v>18.8</v>
+        <v>25.3</v>
       </c>
       <c r="E163">
-        <v>10</v>
+        <v>25.5</v>
       </c>
       <c r="F163">
-        <v>9239.9291555199998</v>
+        <v>11657.478868099999</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>24510090800</v>
+        <v>24510080400</v>
       </c>
       <c r="B164">
-        <v>35808</v>
+        <v>30096</v>
       </c>
       <c r="C164">
-        <v>44.2</v>
+        <v>58.4</v>
       </c>
       <c r="D164">
-        <v>29.9</v>
+        <v>24.2</v>
       </c>
       <c r="E164">
-        <v>8.4</v>
+        <v>12.6</v>
       </c>
       <c r="F164">
-        <v>9420.6008583700004</v>
+        <v>16140.3508772</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>24510090700</v>
+        <v>24510151300</v>
       </c>
       <c r="B165">
-        <v>27440</v>
+        <v>29816</v>
       </c>
       <c r="C165">
-        <v>50.2</v>
+        <v>44.6</v>
       </c>
       <c r="D165">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="E165">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="F165">
-        <v>18655.213270100001</v>
+        <v>12696.550761099999</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>24510090600</v>
+        <v>24510271802</v>
       </c>
       <c r="B166">
-        <v>45306</v>
+        <v>29495</v>
       </c>
       <c r="C166">
-        <v>34.4</v>
+        <v>48.1</v>
       </c>
       <c r="D166">
-        <v>33.1</v>
+        <v>24.6</v>
       </c>
       <c r="E166">
-        <v>12.8</v>
+        <v>10.4</v>
       </c>
       <c r="F166">
-        <v>22053.6756126</v>
+        <v>14619.254628000001</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>24510090500</v>
+        <v>24510080200</v>
       </c>
       <c r="B167">
-        <v>42296</v>
+        <v>29485</v>
       </c>
       <c r="C167">
-        <v>26</v>
+        <v>57.8</v>
       </c>
       <c r="D167">
-        <v>10.3</v>
+        <v>27.1</v>
       </c>
       <c r="E167">
-        <v>34.9</v>
+        <v>11.2</v>
       </c>
       <c r="F167">
-        <v>6859.4579491499999</v>
+        <v>4767.7776440899997</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>24510090400</v>
+        <v>24510070300</v>
       </c>
       <c r="B168">
-        <v>30125</v>
+        <v>29261</v>
       </c>
       <c r="C168">
-        <v>44.6</v>
+        <v>47.6</v>
       </c>
       <c r="D168">
-        <v>25.3</v>
+        <v>20.2</v>
       </c>
       <c r="E168">
-        <v>25.5</v>
+        <v>24.6</v>
       </c>
       <c r="F168">
-        <v>11657.478868099999</v>
+        <v>11802.0160834</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>24510090300</v>
+        <v>24510120600</v>
       </c>
       <c r="B169">
-        <v>42206</v>
+        <v>29036</v>
       </c>
       <c r="C169">
-        <v>39.799999999999997</v>
+        <v>45.5</v>
       </c>
       <c r="D169">
-        <v>17.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="E169">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F169">
-        <v>13702.158179599999</v>
+        <v>16806.333864600001</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>24510090200</v>
+        <v>24510130400</v>
       </c>
       <c r="B170">
-        <v>70500</v>
+        <v>28750</v>
       </c>
       <c r="C170">
-        <v>8.8000000000000007</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D170">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>35.299999999999997</v>
+        <v>13.5</v>
       </c>
       <c r="F170">
-        <v>4652.7309507800001</v>
+        <v>1982.08143191</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>24510090100</v>
+        <v>24510271600</v>
       </c>
       <c r="B171">
-        <v>45962</v>
+        <v>28133</v>
       </c>
       <c r="C171">
-        <v>35</v>
+        <v>50.9</v>
       </c>
       <c r="D171">
-        <v>17.5</v>
+        <v>24.1</v>
       </c>
       <c r="E171">
-        <v>26</v>
+        <v>10.8</v>
       </c>
       <c r="F171">
-        <v>16730.950881600002</v>
+        <v>13777.4528618</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>24510080800</v>
+        <v>24510140200</v>
       </c>
       <c r="B172">
-        <v>38304</v>
+        <v>28000</v>
       </c>
       <c r="C172">
-        <v>41.6</v>
+        <v>50.5</v>
       </c>
       <c r="D172">
-        <v>20.6</v>
+        <v>30.4</v>
       </c>
       <c r="E172">
-        <v>5.4</v>
+        <v>14.2</v>
       </c>
       <c r="F172">
-        <v>10132.088903</v>
+        <v>18697.162330399999</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>24510080700</v>
+        <v>24510080500</v>
       </c>
       <c r="B173">
-        <v>35282</v>
+        <v>27939</v>
       </c>
       <c r="C173">
-        <v>46.3</v>
+        <v>59.2</v>
       </c>
       <c r="D173">
-        <v>9.6999999999999993</v>
+        <v>25.6</v>
       </c>
       <c r="E173">
-        <v>13.7</v>
+        <v>6.7</v>
       </c>
       <c r="F173">
-        <v>9856.9570871300002</v>
+        <v>12639.074321300001</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>24510080600</v>
+        <v>24510200200</v>
       </c>
       <c r="B174">
-        <v>34688</v>
+        <v>27923</v>
       </c>
       <c r="C174">
-        <v>51.5</v>
+        <v>54.8</v>
       </c>
       <c r="D174">
-        <v>22.2</v>
+        <v>25.9</v>
       </c>
       <c r="E174">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="F174">
-        <v>19009.855251000001</v>
+        <v>8284.5024833999996</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>24510080500</v>
+        <v>24510090700</v>
       </c>
       <c r="B175">
-        <v>27939</v>
+        <v>27440</v>
       </c>
       <c r="C175">
-        <v>59.2</v>
+        <v>50.2</v>
       </c>
       <c r="D175">
-        <v>25.6</v>
+        <v>23.2</v>
       </c>
       <c r="E175">
-        <v>6.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F175">
-        <v>12639.074321300001</v>
+        <v>18655.213270100001</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>24510080400</v>
+        <v>24510160200</v>
       </c>
       <c r="B176">
-        <v>30096</v>
+        <v>26792</v>
       </c>
       <c r="C176">
-        <v>58.4</v>
+        <v>51.9</v>
       </c>
       <c r="D176">
-        <v>24.2</v>
+        <v>21.8</v>
       </c>
       <c r="E176">
-        <v>12.6</v>
+        <v>7.6</v>
       </c>
       <c r="F176">
-        <v>16140.3508772</v>
+        <v>17414.4855283</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>24510080302</v>
+        <v>24510160100</v>
       </c>
       <c r="B177">
-        <v>32167</v>
+        <v>26557</v>
       </c>
       <c r="C177">
-        <v>38.799999999999997</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D177">
-        <v>19.7</v>
+        <v>24</v>
       </c>
       <c r="E177">
-        <v>6.9</v>
+        <v>11.3</v>
       </c>
       <c r="F177">
-        <v>17307.012374800001</v>
+        <v>16164.6246531</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>24510080301</v>
+        <v>24510160400</v>
       </c>
       <c r="B178">
-        <v>37574</v>
+        <v>26552</v>
       </c>
       <c r="C178">
-        <v>42.5</v>
+        <v>46.1</v>
       </c>
       <c r="D178">
-        <v>27.5</v>
+        <v>17.8</v>
       </c>
       <c r="E178">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="F178">
-        <v>20094.494262799999</v>
+        <v>16311.369509</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>24510080200</v>
+        <v>24510260604</v>
       </c>
       <c r="B179">
-        <v>29485</v>
+        <v>25563</v>
       </c>
       <c r="C179">
-        <v>57.8</v>
+        <v>42.6</v>
       </c>
       <c r="D179">
-        <v>27.1</v>
+        <v>20.5</v>
       </c>
       <c r="E179">
-        <v>11.2</v>
+        <v>72.7</v>
       </c>
       <c r="F179">
-        <v>4767.7776440899997</v>
+        <v>7533.6830196399997</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>24510080102</v>
+        <v>24510100100</v>
       </c>
       <c r="B180">
-        <v>33711</v>
+        <v>25215</v>
       </c>
       <c r="C180">
-        <v>49.7</v>
+        <v>58.6</v>
       </c>
       <c r="D180">
-        <v>22.3</v>
+        <v>20.2</v>
       </c>
       <c r="E180">
-        <v>10.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F180">
-        <v>17763.297684000001</v>
+        <v>12132.625691900001</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>24510080101</v>
+        <v>24510130100</v>
       </c>
       <c r="B181">
-        <v>63542</v>
+        <v>24639</v>
       </c>
       <c r="C181">
-        <v>14.5</v>
+        <v>51.9</v>
       </c>
       <c r="D181">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
       <c r="E181">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F181">
-        <v>4341.9889688200001</v>
+        <v>22352.437981200001</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>24510070400</v>
+        <v>24510190300</v>
       </c>
       <c r="B182">
-        <v>18977</v>
+        <v>23750</v>
       </c>
       <c r="C182">
-        <v>57.9</v>
+        <v>63</v>
       </c>
       <c r="D182">
-        <v>22.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E182">
-        <v>6.7</v>
+        <v>60.8</v>
       </c>
       <c r="F182">
-        <v>9830.4816223100006</v>
+        <v>17817.279867699999</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>24510070300</v>
+        <v>24510090900</v>
       </c>
       <c r="B183">
-        <v>29261</v>
+        <v>23750</v>
       </c>
       <c r="C183">
-        <v>47.6</v>
+        <v>52.9</v>
       </c>
       <c r="D183">
-        <v>20.2</v>
+        <v>18.8</v>
       </c>
       <c r="E183">
-        <v>24.6</v>
+        <v>10</v>
       </c>
       <c r="F183">
-        <v>11802.0160834</v>
+        <v>9239.9291555199998</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>24510070200</v>
+        <v>24510200300</v>
       </c>
       <c r="B184">
-        <v>32000</v>
+        <v>23542</v>
       </c>
       <c r="C184">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="D184">
-        <v>24</v>
+        <v>36.6</v>
       </c>
       <c r="E184">
-        <v>22.9</v>
+        <v>50.3</v>
       </c>
       <c r="F184">
-        <v>31482.560559400001</v>
+        <v>19926.199261999998</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>24510070100</v>
+        <v>24510250301</v>
       </c>
       <c r="B185">
-        <v>39602</v>
+        <v>23452</v>
       </c>
       <c r="C185">
-        <v>54.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D185">
-        <v>30.8</v>
+        <v>27.4</v>
       </c>
       <c r="E185">
-        <v>28.9</v>
+        <v>24.5</v>
       </c>
       <c r="F185">
-        <v>26352.375011100001</v>
+        <v>3334.1565818700001</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>24510060400</v>
+        <v>24510190100</v>
       </c>
       <c r="B186">
-        <v>55368</v>
+        <v>21630</v>
       </c>
       <c r="C186">
-        <v>32.6</v>
+        <v>54.8</v>
       </c>
       <c r="D186">
-        <v>10.3</v>
+        <v>31.7</v>
       </c>
       <c r="E186">
-        <v>49.4</v>
+        <v>25</v>
       </c>
       <c r="F186">
-        <v>7117.0737576700003</v>
+        <v>12810.978907500001</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>24510060300</v>
+        <v>24510151200</v>
       </c>
       <c r="B187">
-        <v>68088</v>
+        <v>21363</v>
       </c>
       <c r="C187">
-        <v>18.3</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D187">
-        <v>10.9</v>
+        <v>22.2</v>
       </c>
       <c r="E187">
-        <v>73.8</v>
+        <v>11.4</v>
       </c>
       <c r="F187">
-        <v>24916.943521599998</v>
+        <v>14045.3182273</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>24510060200</v>
+        <v>24510180200</v>
       </c>
       <c r="B188">
-        <v>72465</v>
+        <v>20938</v>
       </c>
       <c r="C188">
-        <v>21.3</v>
+        <v>51.5</v>
       </c>
       <c r="D188">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="E188">
-        <v>75.5</v>
+        <v>14.1</v>
       </c>
       <c r="F188">
-        <v>32810.772786699999</v>
+        <v>10781.2844847</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>24510060100</v>
+        <v>24510170300</v>
       </c>
       <c r="B189">
-        <v>48661</v>
+        <v>20880</v>
       </c>
       <c r="C189">
-        <v>26.9</v>
+        <v>43.6</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E189">
-        <v>81.3</v>
+        <v>12.7</v>
       </c>
       <c r="F189">
-        <v>34957.144407100001</v>
+        <v>17030.826558299999</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>24510040200</v>
+        <v>24510030100</v>
       </c>
       <c r="B190">
-        <v>34375</v>
+        <v>19741</v>
       </c>
       <c r="C190">
-        <v>50.4</v>
+        <v>59.1</v>
       </c>
       <c r="D190">
-        <v>7.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E190">
-        <v>70.7</v>
+        <v>49.1</v>
       </c>
       <c r="F190">
-        <v>4971.5234931200002</v>
+        <v>18576.8834475</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>24510040100</v>
+        <v>24510070400</v>
       </c>
       <c r="B191">
-        <v>62500</v>
+        <v>18977</v>
       </c>
       <c r="C191">
-        <v>34.299999999999997</v>
+        <v>57.9</v>
       </c>
       <c r="D191">
-        <v>1.9</v>
+        <v>22.5</v>
       </c>
       <c r="E191">
-        <v>70.900000000000006</v>
+        <v>6.7</v>
       </c>
       <c r="F191">
-        <v>8647.2251602699998</v>
+        <v>9830.4816223100006</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>24510030200</v>
+        <v>24510160300</v>
       </c>
       <c r="B192">
-        <v>77301</v>
+        <v>18093</v>
       </c>
       <c r="C192">
-        <v>23.3</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D192">
-        <v>11.9</v>
+        <v>38.1</v>
       </c>
       <c r="E192">
-        <v>66.8</v>
+        <v>7.9</v>
       </c>
       <c r="F192">
-        <v>11954.4688888</v>
+        <v>15785.2077001</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>24510030100</v>
+        <v>24510150100</v>
       </c>
       <c r="B193">
-        <v>19741</v>
+        <v>17346</v>
       </c>
       <c r="C193">
-        <v>59.1</v>
+        <v>71.3</v>
       </c>
       <c r="D193">
-        <v>19.100000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="E193">
-        <v>49.1</v>
+        <v>6.7</v>
       </c>
       <c r="F193">
-        <v>18576.8834475</v>
+        <v>22517.531556800001</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>24510020300</v>
+        <v>24510260303</v>
       </c>
       <c r="B194">
-        <v>108516</v>
+        <v>17125</v>
       </c>
       <c r="C194">
-        <v>12.4</v>
+        <v>34.1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E194">
-        <v>44.1</v>
+        <v>58.5</v>
       </c>
       <c r="F194">
-        <v>13068.625918399999</v>
+        <v>1655.28393013</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>24510020200</v>
+        <v>24510250204</v>
       </c>
       <c r="B195">
-        <v>89375</v>
+        <v>15567</v>
       </c>
       <c r="C195">
-        <v>17.899999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>24.2</v>
       </c>
       <c r="E195">
-        <v>83.5</v>
+        <v>5.2</v>
       </c>
       <c r="F195">
-        <v>27363.314540399999</v>
+        <v>12398.5572588</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>24510020100</v>
+        <v>24510180100</v>
       </c>
       <c r="B196">
-        <v>90500</v>
+        <v>14583</v>
       </c>
       <c r="C196">
-        <v>17.5</v>
+        <v>63.5</v>
       </c>
       <c r="D196">
-        <v>8.4</v>
+        <v>33.5</v>
       </c>
       <c r="E196">
-        <v>59</v>
+        <v>8.5</v>
       </c>
       <c r="F196">
-        <v>27956.670129099999</v>
+        <v>16680.567139300001</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>24510010500</v>
+        <v>24510280500</v>
       </c>
       <c r="B197">
-        <v>99167</v>
+        <v>13644</v>
       </c>
       <c r="C197">
-        <v>8.8000000000000007</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D197">
-        <v>6.1</v>
+        <v>38</v>
       </c>
       <c r="E197">
-        <v>50.1</v>
+        <v>28.2</v>
       </c>
       <c r="F197">
-        <v>28762.095428799999</v>
+        <v>9968.5410931999995</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>24510010400</v>
+        <v>24510170200</v>
       </c>
       <c r="B198">
-        <v>114453</v>
+        <v>13643</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="D198">
-        <v>3.7</v>
+        <v>27.3</v>
       </c>
       <c r="E198">
-        <v>37.200000000000003</v>
+        <v>19</v>
       </c>
       <c r="F198">
-        <v>19890.498302</v>
+        <v>16489.278037</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>24510010300</v>
+        <v>24510100200</v>
       </c>
       <c r="B199">
-        <v>138686</v>
+        <v>13074</v>
       </c>
       <c r="C199">
-        <v>5.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="D199">
-        <v>4.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E199">
-        <v>37.700000000000003</v>
+        <v>7.4</v>
       </c>
       <c r="F199">
-        <v>8356.3562048200001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>24510010200</v>
-      </c>
-      <c r="B200">
-        <v>107617</v>
-      </c>
-      <c r="C200">
-        <v>7.8</v>
-      </c>
-      <c r="D200">
-        <v>4.5</v>
-      </c>
-      <c r="E200">
-        <v>66.3</v>
-      </c>
-      <c r="F200">
-        <v>21944.2823804</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>24510010100</v>
-      </c>
-      <c r="B201">
-        <v>109808</v>
-      </c>
-      <c r="C201">
-        <v>6.7</v>
-      </c>
-      <c r="D201">
-        <v>4.2</v>
-      </c>
-      <c r="E201">
-        <v>27.5</v>
-      </c>
-      <c r="F201">
-        <v>19906.4620249</v>
+        <v>23506.923795800001</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F199">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Baltimore Data/Baltimore_Master.xlsx
+++ b/data/Baltimore Data/Baltimore_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Midterm\Baltimore Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73488AF2-F9F4-419D-AF93-FF4D99E3A567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F8447-E731-41B5-91BE-CDE986D19C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FEFAC233-E257-47F6-B14B-35AD3F2DEE05}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CT2010</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>PopDensity</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C81F8-91BC-41F4-8391-004E67164647}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,9 +419,10 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +441,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24510271102</v>
       </c>
@@ -457,8 +464,11 @@
       <c r="F2">
         <v>9317.7933817899993</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24510271300</v>
       </c>
@@ -477,8 +487,11 @@
       <c r="F3">
         <v>2518.97580303</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24510271200</v>
       </c>
@@ -497,8 +510,11 @@
       <c r="F4">
         <v>4388.9108626099996</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24510010300</v>
       </c>
@@ -517,8 +533,11 @@
       <c r="F5">
         <v>8356.3562048200001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24510240200</v>
       </c>
@@ -537,8 +556,11 @@
       <c r="F6">
         <v>15369.859729</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24510240100</v>
       </c>
@@ -557,8 +579,11 @@
       <c r="F7">
         <v>3713.6409917699998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24510271400</v>
       </c>
@@ -577,8 +602,11 @@
       <c r="F8">
         <v>5613.6654375799999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24510261100</v>
       </c>
@@ -597,8 +625,11 @@
       <c r="F9">
         <v>22993.517972900001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24510240300</v>
       </c>
@@ -617,8 +648,11 @@
       <c r="F10">
         <v>27650.781350900001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24510010400</v>
       </c>
@@ -637,8 +671,11 @@
       <c r="F11">
         <v>19890.498302</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24510010100</v>
       </c>
@@ -657,8 +694,11 @@
       <c r="F12">
         <v>19906.4620249</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24510230200</v>
       </c>
@@ -677,8 +717,11 @@
       <c r="F13">
         <v>25854.064992299998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24510020300</v>
       </c>
@@ -697,8 +740,11 @@
       <c r="F14">
         <v>13068.625918399999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24510010200</v>
       </c>
@@ -717,8 +763,11 @@
       <c r="F15">
         <v>21944.2823804</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24510230300</v>
       </c>
@@ -737,8 +786,11 @@
       <c r="F16">
         <v>2245.23677761</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24510260900</v>
       </c>
@@ -757,8 +809,11 @@
       <c r="F17">
         <v>12474.129821299999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24510240400</v>
       </c>
@@ -777,8 +832,11 @@
       <c r="F18">
         <v>5524.0428000499996</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24510271501</v>
       </c>
@@ -797,8 +855,11 @@
       <c r="F19">
         <v>2975.8051320700001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24510010500</v>
       </c>
@@ -817,8 +878,11 @@
       <c r="F20">
         <v>28762.095428799999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24510130600</v>
       </c>
@@ -837,8 +901,11 @@
       <c r="F21">
         <v>10632.7462492</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24510020100</v>
       </c>
@@ -857,8 +924,11 @@
       <c r="F22">
         <v>27956.670129099999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24510020200</v>
       </c>
@@ -877,8 +947,11 @@
       <c r="F23">
         <v>27363.314540399999</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24510130806</v>
       </c>
@@ -897,8 +970,11 @@
       <c r="F24">
         <v>2642.4152894499998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24510120201</v>
       </c>
@@ -917,8 +993,11 @@
       <c r="F25">
         <v>15129.865297300001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24510270402</v>
       </c>
@@ -937,8 +1016,11 @@
       <c r="F26">
         <v>6964.0045722200002</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24510030200</v>
       </c>
@@ -957,8 +1039,11 @@
       <c r="F27">
         <v>11954.4688888</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24510220100</v>
       </c>
@@ -977,8 +1062,11 @@
       <c r="F28">
         <v>9022.2361696400003</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24510270200</v>
       </c>
@@ -997,8 +1085,11 @@
       <c r="F29">
         <v>5281.0197831300002</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24510270302</v>
       </c>
@@ -1017,8 +1108,11 @@
       <c r="F30">
         <v>8822.6467940399998</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24510270101</v>
       </c>
@@ -1037,8 +1131,11 @@
       <c r="F31">
         <v>4610.4971625600001</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24510060200</v>
       </c>
@@ -1057,8 +1154,11 @@
       <c r="F32">
         <v>32810.772786699999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24510271503</v>
       </c>
@@ -1077,8 +1177,11 @@
       <c r="F33">
         <v>2994.3680694</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24510230100</v>
       </c>
@@ -1097,8 +1200,11 @@
       <c r="F34">
         <v>15039.273063299999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24510090200</v>
       </c>
@@ -1117,8 +1223,11 @@
       <c r="F35">
         <v>4652.7309507800001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24510270502</v>
       </c>
@@ -1137,8 +1246,11 @@
       <c r="F36">
         <v>7337.5508967899996</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24510060300</v>
       </c>
@@ -1157,8 +1269,11 @@
       <c r="F37">
         <v>24916.943521599998</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24510130804</v>
       </c>
@@ -1177,8 +1292,11 @@
       <c r="F38">
         <v>6846.9162609900004</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24510272003</v>
       </c>
@@ -1197,8 +1315,11 @@
       <c r="F39">
         <v>7788.3997429299998</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24510120100</v>
       </c>
@@ -1217,8 +1338,11 @@
       <c r="F40">
         <v>11946.626761400001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24510270102</v>
       </c>
@@ -1237,8 +1361,11 @@
       <c r="F41">
         <v>9510.1595596299994</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24510270301</v>
       </c>
@@ -1257,8 +1384,11 @@
       <c r="F42">
         <v>7152.4322359300004</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24510270401</v>
       </c>
@@ -1277,8 +1407,11 @@
       <c r="F43">
         <v>9619.1102500800007</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24510120700</v>
       </c>
@@ -1297,8 +1430,11 @@
       <c r="F44">
         <v>6140.4161396700001</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24510210100</v>
       </c>
@@ -1317,8 +1453,11 @@
       <c r="F45">
         <v>4275.5630494999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>24510080101</v>
       </c>
@@ -1337,8 +1476,11 @@
       <c r="F46">
         <v>4341.9889688200001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24510280403</v>
       </c>
@@ -1357,8 +1499,11 @@
       <c r="F47">
         <v>7162.6238951799996</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24510040100</v>
       </c>
@@ -1377,8 +1522,11 @@
       <c r="F48">
         <v>8647.2251602699998</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24510270501</v>
       </c>
@@ -1397,8 +1545,11 @@
       <c r="F49">
         <v>4930.50442853</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24510270703</v>
       </c>
@@ -1417,8 +1568,11 @@
       <c r="F50">
         <v>7551.7915309399996</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>24510120500</v>
       </c>
@@ -1437,8 +1591,11 @@
       <c r="F51">
         <v>8608.65290069</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>24510272005</v>
       </c>
@@ -1457,8 +1614,11 @@
       <c r="F52">
         <v>9573.3988497400005</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>24510260700</v>
       </c>
@@ -1477,8 +1637,11 @@
       <c r="F53">
         <v>7704.8956770799996</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24510270600</v>
       </c>
@@ -1497,8 +1660,11 @@
       <c r="F54">
         <v>7671.5478034899998</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24510130700</v>
       </c>
@@ -1517,8 +1683,11 @@
       <c r="F55">
         <v>12740.478994900001</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24510260101</v>
       </c>
@@ -1537,8 +1706,11 @@
       <c r="F56">
         <v>7539.9715054600001</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24510270902</v>
       </c>
@@ -1557,8 +1729,11 @@
       <c r="F57">
         <v>10868.770004600001</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>24510250206</v>
       </c>
@@ -1577,8 +1752,11 @@
       <c r="F58">
         <v>2612.1773860100002</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>24510280200</v>
       </c>
@@ -1597,8 +1775,11 @@
       <c r="F59">
         <v>5177.1467787600004</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24510270804</v>
       </c>
@@ -1617,8 +1798,11 @@
       <c r="F60">
         <v>10068.222621200001</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24510260501</v>
       </c>
@@ -1637,8 +1821,11 @@
       <c r="F61">
         <v>3919.0623191200002</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>24510260102</v>
       </c>
@@ -1657,8 +1844,11 @@
       <c r="F62">
         <v>8763.2269231499995</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>24510271101</v>
       </c>
@@ -1677,8 +1867,11 @@
       <c r="F63">
         <v>5236.7545431299995</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24510060400</v>
       </c>
@@ -1697,8 +1890,11 @@
       <c r="F64">
         <v>7117.0737576700003</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>24510280102</v>
       </c>
@@ -1717,8 +1913,11 @@
       <c r="F65">
         <v>4476.9155570000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>24510110100</v>
       </c>
@@ -1737,8 +1936,11 @@
       <c r="F66">
         <v>26502.754707700002</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>24510130803</v>
       </c>
@@ -1757,8 +1959,11 @@
       <c r="F67">
         <v>10267.9071853</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>24510150900</v>
       </c>
@@ -1777,8 +1982,11 @@
       <c r="F68">
         <v>5985.8587666699996</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>24510270805</v>
       </c>
@@ -1797,8 +2005,11 @@
       <c r="F69">
         <v>10285.3819632</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>24510250101</v>
       </c>
@@ -1817,8 +2028,11 @@
       <c r="F70">
         <v>9754.9164671399994</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>24510270801</v>
       </c>
@@ -1837,8 +2051,11 @@
       <c r="F71">
         <v>12984.390525299999</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>24510270702</v>
       </c>
@@ -1857,8 +2074,11 @@
       <c r="F72">
         <v>7108.9036504400001</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>24510120300</v>
       </c>
@@ -1877,8 +2097,11 @@
       <c r="F73">
         <v>22783.8357922</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>24510270901</v>
       </c>
@@ -1897,8 +2120,11 @@
       <c r="F74">
         <v>15455.4837723</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>24510261000</v>
       </c>
@@ -1917,8 +2143,11 @@
       <c r="F75">
         <v>27178.544573499999</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>24510151100</v>
       </c>
@@ -1937,8 +2166,11 @@
       <c r="F76">
         <v>10020.125632699999</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>24510271900</v>
       </c>
@@ -1957,8 +2189,11 @@
       <c r="F77">
         <v>6985.3553774100001</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>24510270803</v>
       </c>
@@ -1977,8 +2212,11 @@
       <c r="F78">
         <v>7410.5601664699998</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>24510250402</v>
       </c>
@@ -1997,8 +2235,11 @@
       <c r="F79">
         <v>18133.666826100001</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>24510270802</v>
       </c>
@@ -2017,8 +2258,11 @@
       <c r="F80">
         <v>11756.3939522</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>24510140100</v>
       </c>
@@ -2037,8 +2281,11 @@
       <c r="F81">
         <v>22503.732524999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>24510060100</v>
       </c>
@@ -2057,8 +2304,11 @@
       <c r="F82">
         <v>34957.144407100001</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>24510270903</v>
       </c>
@@ -2077,8 +2327,11 @@
       <c r="F83">
         <v>10948.8356604</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>24510280402</v>
       </c>
@@ -2097,8 +2350,11 @@
       <c r="F84">
         <v>7308.6924219900002</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>24510280101</v>
       </c>
@@ -2117,8 +2373,11 @@
       <c r="F85">
         <v>5933.5282973800004</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>24510150701</v>
       </c>
@@ -2137,8 +2396,11 @@
       <c r="F86">
         <v>4503.3323597400004</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>24510130200</v>
       </c>
@@ -2157,8 +2419,11 @@
       <c r="F87">
         <v>20520.5945426</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>24510280401</v>
       </c>
@@ -2177,8 +2442,11 @@
       <c r="F88">
         <v>5619.12868041</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>24510090100</v>
       </c>
@@ -2197,8 +2465,11 @@
       <c r="F89">
         <v>16730.950881600002</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24510110200</v>
       </c>
@@ -2217,8 +2488,11 @@
       <c r="F90">
         <v>18123.9949973</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24510090600</v>
       </c>
@@ -2237,8 +2511,11 @@
       <c r="F91">
         <v>22053.6756126</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>24510260404</v>
       </c>
@@ -2257,8 +2534,11 @@
       <c r="F92">
         <v>1156.02919032</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>24510260301</v>
       </c>
@@ -2277,8 +2557,11 @@
       <c r="F93">
         <v>21040.733631899999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>24510160802</v>
       </c>
@@ -2297,8 +2580,11 @@
       <c r="F94">
         <v>6434.6392798300003</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>24510280302</v>
       </c>
@@ -2317,8 +2603,11 @@
       <c r="F95">
         <v>6101.9305845199997</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24510160801</v>
       </c>
@@ -2337,8 +2626,11 @@
       <c r="F96">
         <v>21810.8090142</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24510250102</v>
       </c>
@@ -2357,8 +2649,11 @@
       <c r="F97">
         <v>10211.959573300001</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>24510150200</v>
       </c>
@@ -2377,8 +2672,11 @@
       <c r="F98">
         <v>16656.381140500001</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>24510272004</v>
       </c>
@@ -2397,8 +2695,11 @@
       <c r="F99">
         <v>13839.4651273</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>24510090500</v>
       </c>
@@ -2417,8 +2718,11 @@
       <c r="F100">
         <v>6859.4579491499999</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>24510090300</v>
       </c>
@@ -2437,8 +2741,11 @@
       <c r="F101">
         <v>13702.158179599999</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>24510200702</v>
       </c>
@@ -2457,8 +2764,11 @@
       <c r="F102">
         <v>12816.825453900001</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>24510260605</v>
       </c>
@@ -2477,8 +2787,11 @@
       <c r="F103">
         <v>1238.7332112300001</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>24510260800</v>
       </c>
@@ -2497,8 +2810,11 @@
       <c r="F104">
         <v>21996.011301300001</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>24510271700</v>
       </c>
@@ -2517,8 +2833,11 @@
       <c r="F105">
         <v>8435.8943720900006</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>24510150702</v>
       </c>
@@ -2537,8 +2856,11 @@
       <c r="F106">
         <v>15605.9804181</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>24510271001</v>
       </c>
@@ -2557,8 +2879,11 @@
       <c r="F107">
         <v>11815.517507299999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>24510260402</v>
       </c>
@@ -2577,8 +2902,11 @@
       <c r="F108">
         <v>5068.5246152700001</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24510210200</v>
       </c>
@@ -2597,8 +2925,11 @@
       <c r="F109">
         <v>3725.2195041099999</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24510250205</v>
       </c>
@@ -2617,8 +2948,11 @@
       <c r="F110">
         <v>5243.7933348200004</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24510200800</v>
       </c>
@@ -2637,8 +2971,11 @@
       <c r="F111">
         <v>5538.1628443199997</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24510151000</v>
       </c>
@@ -2657,8 +2994,11 @@
       <c r="F112">
         <v>9096.9362830600003</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24510160600</v>
       </c>
@@ -2677,8 +3017,11 @@
       <c r="F113">
         <v>16263.4408602</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24510272007</v>
       </c>
@@ -2697,8 +3040,11 @@
       <c r="F114">
         <v>14068.943299</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24510130805</v>
       </c>
@@ -2717,8 +3063,11 @@
       <c r="F115">
         <v>1553.43174363</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24510250401</v>
       </c>
@@ -2737,8 +3086,11 @@
       <c r="F116">
         <v>8392.7904985599998</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24510070100</v>
       </c>
@@ -2757,8 +3109,11 @@
       <c r="F117">
         <v>26352.375011100001</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>24510250103</v>
       </c>
@@ -2777,8 +3132,11 @@
       <c r="F118">
         <v>4054.0946355800002</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24510260202</v>
       </c>
@@ -2797,8 +3155,11 @@
       <c r="F119">
         <v>15086.524534300001</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24510260203</v>
       </c>
@@ -2817,8 +3178,11 @@
       <c r="F120">
         <v>8229.6149819700004</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24510250303</v>
       </c>
@@ -2837,8 +3201,11 @@
       <c r="F121">
         <v>5804.48573855</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24510120400</v>
       </c>
@@ -2857,8 +3224,11 @@
       <c r="F122">
         <v>12319.384499899999</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24510080800</v>
       </c>
@@ -2877,8 +3247,11 @@
       <c r="F123">
         <v>10132.088903</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24510150300</v>
       </c>
@@ -2897,8 +3270,11 @@
       <c r="F124">
         <v>16079.4237882</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24510140300</v>
       </c>
@@ -2917,8 +3293,11 @@
       <c r="F125">
         <v>15465.694398400001</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24510250203</v>
       </c>
@@ -2937,8 +3316,11 @@
       <c r="F126">
         <v>5660.9066427300004</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24510080301</v>
       </c>
@@ -2957,8 +3339,11 @@
       <c r="F127">
         <v>20094.494262799999</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>24510280404</v>
       </c>
@@ -2977,8 +3362,11 @@
       <c r="F128">
         <v>6901.0654490099996</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24510180300</v>
       </c>
@@ -2997,8 +3385,11 @@
       <c r="F129">
         <v>17076.661597599999</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>24510271002</v>
       </c>
@@ -3017,8 +3408,11 @@
       <c r="F130">
         <v>11198.7424452</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>24510280301</v>
       </c>
@@ -3037,8 +3431,11 @@
       <c r="F131">
         <v>3282.2967273099998</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>24510270701</v>
       </c>
@@ -3057,8 +3454,11 @@
       <c r="F132">
         <v>17237.237237199999</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>24510150800</v>
       </c>
@@ -3077,8 +3477,11 @@
       <c r="F133">
         <v>10031.1171287</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>24510250500</v>
       </c>
@@ -3097,8 +3500,11 @@
       <c r="F134">
         <v>1642.1899870899999</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>24510120202</v>
       </c>
@@ -3117,8 +3523,11 @@
       <c r="F135">
         <v>16406.579502299999</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>24510160700</v>
       </c>
@@ -3137,8 +3546,11 @@
       <c r="F136">
         <v>15049.5845618</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>24510260201</v>
       </c>
@@ -3157,8 +3569,11 @@
       <c r="F137">
         <v>8100.1915799799999</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>24510200701</v>
       </c>
@@ -3177,8 +3592,11 @@
       <c r="F138">
         <v>9929.9165878399999</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>24510130300</v>
       </c>
@@ -3197,8 +3615,11 @@
       <c r="F139">
         <v>16401.619199100001</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>24510090800</v>
       </c>
@@ -3217,8 +3638,11 @@
       <c r="F140">
         <v>9420.6008583700004</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>24510260401</v>
       </c>
@@ -3237,8 +3661,11 @@
       <c r="F141">
         <v>6245.40778839</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>24510160500</v>
       </c>
@@ -3257,8 +3684,11 @@
       <c r="F142">
         <v>10626.846242400001</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>24510150400</v>
       </c>
@@ -3277,8 +3707,11 @@
       <c r="F143">
         <v>11826.7276423</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>24510080700</v>
       </c>
@@ -3297,8 +3730,11 @@
       <c r="F144">
         <v>9856.9570871300002</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>24510080600</v>
       </c>
@@ -3317,8 +3753,11 @@
       <c r="F145">
         <v>19009.855251000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>24510040200</v>
       </c>
@@ -3337,8 +3776,11 @@
       <c r="F146">
         <v>4971.5234931200002</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>24510200500</v>
       </c>
@@ -3357,8 +3799,11 @@
       <c r="F147">
         <v>12128.4644484</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>24510250207</v>
       </c>
@@ -3377,8 +3822,11 @@
       <c r="F148">
         <v>5812.7717237899997</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>24510260302</v>
       </c>
@@ -3397,8 +3845,11 @@
       <c r="F149">
         <v>17600.508317899999</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>24510080102</v>
       </c>
@@ -3417,8 +3868,11 @@
       <c r="F150">
         <v>17763.297684000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>24510150500</v>
       </c>
@@ -3437,8 +3891,11 @@
       <c r="F151">
         <v>4166.21665407</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>24510272006</v>
       </c>
@@ -3457,8 +3914,11 @@
       <c r="F152">
         <v>12467.934076</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>24510190200</v>
       </c>
@@ -3477,8 +3937,11 @@
       <c r="F153">
         <v>17630.853994500001</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>24510080302</v>
       </c>
@@ -3497,8 +3960,11 @@
       <c r="F154">
         <v>17307.012374800001</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>24510260403</v>
       </c>
@@ -3517,8 +3983,11 @@
       <c r="F155">
         <v>2414.7182828700002</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>24510070200</v>
       </c>
@@ -3537,8 +4006,11 @@
       <c r="F156">
         <v>31482.560559400001</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>24510200600</v>
       </c>
@@ -3557,8 +4029,11 @@
       <c r="F157">
         <v>3900.7347126599998</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>24510200100</v>
       </c>
@@ -3577,8 +4052,11 @@
       <c r="F158">
         <v>18034.388433</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>24510200400</v>
       </c>
@@ -3597,8 +4075,11 @@
       <c r="F159">
         <v>11291.399572599999</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>24510170100</v>
       </c>
@@ -3617,8 +4098,11 @@
       <c r="F160">
         <v>14808.6522463</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>24510150600</v>
       </c>
@@ -3637,8 +4121,11 @@
       <c r="F161">
         <v>9214.8972371500004</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24510271801</v>
       </c>
@@ -3657,8 +4144,11 @@
       <c r="F162">
         <v>14738.6500789</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>24510090400</v>
       </c>
@@ -3677,8 +4167,11 @@
       <c r="F163">
         <v>11657.478868099999</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>24510080400</v>
       </c>
@@ -3697,8 +4190,11 @@
       <c r="F164">
         <v>16140.3508772</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>24510151300</v>
       </c>
@@ -3717,8 +4213,11 @@
       <c r="F165">
         <v>12696.550761099999</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>24510271802</v>
       </c>
@@ -3737,8 +4236,11 @@
       <c r="F166">
         <v>14619.254628000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>24510080200</v>
       </c>
@@ -3757,8 +4259,11 @@
       <c r="F167">
         <v>4767.7776440899997</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>24510070300</v>
       </c>
@@ -3777,8 +4282,11 @@
       <c r="F168">
         <v>11802.0160834</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24510120600</v>
       </c>
@@ -3797,8 +4305,11 @@
       <c r="F169">
         <v>16806.333864600001</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>24510130400</v>
       </c>
@@ -3817,8 +4328,11 @@
       <c r="F170">
         <v>1982.08143191</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>24510271600</v>
       </c>
@@ -3837,8 +4351,11 @@
       <c r="F171">
         <v>13777.4528618</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>24510140200</v>
       </c>
@@ -3857,8 +4374,11 @@
       <c r="F172">
         <v>18697.162330399999</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>24510080500</v>
       </c>
@@ -3877,8 +4397,11 @@
       <c r="F173">
         <v>12639.074321300001</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>24510200200</v>
       </c>
@@ -3897,8 +4420,11 @@
       <c r="F174">
         <v>8284.5024833999996</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>24510090700</v>
       </c>
@@ -3917,8 +4443,11 @@
       <c r="F175">
         <v>18655.213270100001</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>24510160200</v>
       </c>
@@ -3937,8 +4466,11 @@
       <c r="F176">
         <v>17414.4855283</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>24510160100</v>
       </c>
@@ -3957,8 +4489,11 @@
       <c r="F177">
         <v>16164.6246531</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>24510160400</v>
       </c>
@@ -3977,8 +4512,11 @@
       <c r="F178">
         <v>16311.369509</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>24510260604</v>
       </c>
@@ -3997,8 +4535,11 @@
       <c r="F179">
         <v>7533.6830196399997</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>24510100100</v>
       </c>
@@ -4017,8 +4558,11 @@
       <c r="F180">
         <v>12132.625691900001</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>24510130100</v>
       </c>
@@ -4037,8 +4581,11 @@
       <c r="F181">
         <v>22352.437981200001</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>24510190300</v>
       </c>
@@ -4057,8 +4604,11 @@
       <c r="F182">
         <v>17817.279867699999</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>24510090900</v>
       </c>
@@ -4077,8 +4627,11 @@
       <c r="F183">
         <v>9239.9291555199998</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>24510200300</v>
       </c>
@@ -4097,8 +4650,11 @@
       <c r="F184">
         <v>19926.199261999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>24510250301</v>
       </c>
@@ -4117,8 +4673,11 @@
       <c r="F185">
         <v>3334.1565818700001</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>24510190100</v>
       </c>
@@ -4137,8 +4696,11 @@
       <c r="F186">
         <v>12810.978907500001</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>24510151200</v>
       </c>
@@ -4157,8 +4719,11 @@
       <c r="F187">
         <v>14045.3182273</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>24510180200</v>
       </c>
@@ -4177,8 +4742,11 @@
       <c r="F188">
         <v>10781.2844847</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>24510170300</v>
       </c>
@@ -4197,8 +4765,11 @@
       <c r="F189">
         <v>17030.826558299999</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>24510030100</v>
       </c>
@@ -4217,8 +4788,11 @@
       <c r="F190">
         <v>18576.8834475</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>24510070400</v>
       </c>
@@ -4237,8 +4811,11 @@
       <c r="F191">
         <v>9830.4816223100006</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>24510160300</v>
       </c>
@@ -4257,8 +4834,11 @@
       <c r="F192">
         <v>15785.2077001</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>24510150100</v>
       </c>
@@ -4277,8 +4857,11 @@
       <c r="F193">
         <v>22517.531556800001</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>24510260303</v>
       </c>
@@ -4297,8 +4880,11 @@
       <c r="F194">
         <v>1655.28393013</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>24510250204</v>
       </c>
@@ -4317,8 +4903,11 @@
       <c r="F195">
         <v>12398.5572588</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>24510180100</v>
       </c>
@@ -4337,8 +4926,11 @@
       <c r="F196">
         <v>16680.567139300001</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>24510280500</v>
       </c>
@@ -4357,8 +4949,11 @@
       <c r="F197">
         <v>9968.5410931999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>24510170200</v>
       </c>
@@ -4377,8 +4972,11 @@
       <c r="F198">
         <v>16489.278037</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>24510100200</v>
       </c>
@@ -4396,6 +4994,19 @@
       </c>
       <c r="F199">
         <v>23506.923795800001</v>
+      </c>
+      <c r="G199">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G200">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G201">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Baltimore Data/Baltimore_Master.xlsx
+++ b/data/Baltimore Data/Baltimore_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Midterm\Baltimore Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F8447-E731-41B5-91BE-CDE986D19C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253B027-5ED3-4A53-B713-E274E5AA02EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FEFAC233-E257-47F6-B14B-35AD3F2DEE05}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C81F8-91BC-41F4-8391-004E67164647}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>9317.7933817899993</v>
       </c>
       <c r="G2">
-        <v>17.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>2518.97580303</v>
       </c>
       <c r="G3">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>4388.9108626099996</v>
       </c>
       <c r="G4">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -534,7 +534,7 @@
         <v>8356.3562048200001</v>
       </c>
       <c r="G5">
-        <v>13.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
         <v>15369.859729</v>
       </c>
       <c r="G6">
-        <v>6.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>3713.6409917699998</v>
       </c>
       <c r="G7">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>5613.6654375799999</v>
       </c>
       <c r="G8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>22993.517972900001</v>
       </c>
       <c r="G9">
-        <v>13.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>27650.781350900001</v>
       </c>
       <c r="G10">
-        <v>10.199999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>19890.498302</v>
       </c>
       <c r="G11">
-        <v>11.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>19906.4620249</v>
       </c>
       <c r="G12">
-        <v>10.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>25854.064992299998</v>
       </c>
       <c r="G13">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>13068.625918399999</v>
       </c>
       <c r="G14">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>21944.2823804</v>
       </c>
       <c r="G15">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>2245.23677761</v>
       </c>
       <c r="G16">
-        <v>6.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>12474.129821299999</v>
       </c>
       <c r="G17">
-        <v>8.8000000000000007</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>5524.0428000499996</v>
       </c>
       <c r="G18">
-        <v>8.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -856,7 +856,7 @@
         <v>2975.8051320700001</v>
       </c>
       <c r="G19">
-        <v>19.100000000000001</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>28762.095428799999</v>
       </c>
       <c r="G20">
-        <v>18.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>10632.7462492</v>
       </c>
       <c r="G21">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>27956.670129099999</v>
       </c>
       <c r="G22">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>27363.314540399999</v>
       </c>
       <c r="G23">
-        <v>4.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>2642.4152894499998</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>15129.865297300001</v>
       </c>
       <c r="G25">
-        <v>0.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>6964.0045722200002</v>
       </c>
       <c r="G26">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>11954.4688888</v>
       </c>
       <c r="G27">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>9022.2361696400003</v>
       </c>
       <c r="G28">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>5281.0197831300002</v>
       </c>
       <c r="G29">
-        <v>16.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>8822.6467940399998</v>
       </c>
       <c r="G30">
-        <v>16.399999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>4610.4971625600001</v>
       </c>
       <c r="G31">
-        <v>8.6999999999999993</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>32810.772786699999</v>
       </c>
       <c r="G32">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>2994.3680694</v>
       </c>
       <c r="G33">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
         <v>15039.273063299999</v>
       </c>
       <c r="G34">
-        <v>14.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>7337.5508967899996</v>
       </c>
       <c r="G36">
-        <v>9.6999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
         <v>24916.943521599998</v>
       </c>
       <c r="G37">
-        <v>9.3000000000000007</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>6846.9162609900004</v>
       </c>
       <c r="G38">
-        <v>10.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
         <v>7788.3997429299998</v>
       </c>
       <c r="G39">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>11946.626761400001</v>
       </c>
       <c r="G40">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>9510.1595596299994</v>
       </c>
       <c r="G41">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
         <v>7152.4322359300004</v>
       </c>
       <c r="G42">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>9619.1102500800007</v>
       </c>
       <c r="G43">
-        <v>8.6999999999999993</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>6140.4161396700001</v>
       </c>
       <c r="G44">
-        <v>3.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>4275.5630494999996</v>
       </c>
       <c r="G45">
-        <v>3.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>4341.9889688200001</v>
       </c>
       <c r="G46">
-        <v>3.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
         <v>7162.6238951799996</v>
       </c>
       <c r="G47">
-        <v>9.1999999999999993</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>8647.2251602699998</v>
       </c>
       <c r="G48">
-        <v>5.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1546,7 +1546,7 @@
         <v>4930.50442853</v>
       </c>
       <c r="G49">
-        <v>8.6999999999999993</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,7 +1569,7 @@
         <v>7551.7915309399996</v>
       </c>
       <c r="G50">
-        <v>9.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>8608.65290069</v>
       </c>
       <c r="G51">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>9573.3988497400005</v>
       </c>
       <c r="G52">
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>7704.8956770799996</v>
       </c>
       <c r="G53">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,7 +1661,7 @@
         <v>7671.5478034899998</v>
       </c>
       <c r="G54">
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>12740.478994900001</v>
       </c>
       <c r="G55">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
         <v>7539.9715054600001</v>
       </c>
       <c r="G56">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1730,7 +1730,7 @@
         <v>10868.770004600001</v>
       </c>
       <c r="G57">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>2612.1773860100002</v>
       </c>
       <c r="G58">
-        <v>17.600000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1776,7 +1776,7 @@
         <v>5177.1467787600004</v>
       </c>
       <c r="G59">
-        <v>4.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
         <v>10068.222621200001</v>
       </c>
       <c r="G60">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>3919.0623191200002</v>
       </c>
       <c r="G61">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>8763.2269231499995</v>
       </c>
       <c r="G62">
-        <v>9.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>5236.7545431299995</v>
       </c>
       <c r="G63">
-        <v>13</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>7117.0737576700003</v>
       </c>
       <c r="G64">
-        <v>14.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>4476.9155570000003</v>
       </c>
       <c r="G65">
-        <v>17.8</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
         <v>26502.754707700002</v>
       </c>
       <c r="G66">
-        <v>13.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1960,7 +1960,7 @@
         <v>10267.9071853</v>
       </c>
       <c r="G67">
-        <v>10.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1983,7 +1983,7 @@
         <v>5985.8587666699996</v>
       </c>
       <c r="G68">
-        <v>11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>10285.3819632</v>
       </c>
       <c r="G69">
-        <v>2.4</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>9754.9164671399994</v>
       </c>
       <c r="G70">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2052,7 +2052,7 @@
         <v>12984.390525299999</v>
       </c>
       <c r="G71">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>7108.9036504400001</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>22783.8357922</v>
       </c>
       <c r="G73">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2121,7 +2121,7 @@
         <v>15455.4837723</v>
       </c>
       <c r="G74">
-        <v>11.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
         <v>27178.544573499999</v>
       </c>
       <c r="G75">
-        <v>11.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>10020.125632699999</v>
       </c>
       <c r="G76">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2190,7 +2190,7 @@
         <v>6985.3553774100001</v>
       </c>
       <c r="G77">
-        <v>18.600000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>7410.5601664699998</v>
       </c>
       <c r="G78">
-        <v>10.6</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
         <v>18133.666826100001</v>
       </c>
       <c r="G79">
-        <v>6.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2259,7 +2259,7 @@
         <v>11756.3939522</v>
       </c>
       <c r="G80">
-        <v>10.6</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>22503.732524999999</v>
       </c>
       <c r="G81">
-        <v>16.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>34957.144407100001</v>
       </c>
       <c r="G82">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>10948.8356604</v>
       </c>
       <c r="G83">
-        <v>6.3</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
         <v>7308.6924219900002</v>
       </c>
       <c r="G84">
-        <v>9.9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,7 +2374,7 @@
         <v>5933.5282973800004</v>
       </c>
       <c r="G85">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>4503.3323597400004</v>
       </c>
       <c r="G86">
-        <v>2.2000000000000002</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>20520.5945426</v>
       </c>
       <c r="G87">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>5619.12868041</v>
       </c>
       <c r="G88">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
         <v>16730.950881600002</v>
       </c>
       <c r="G89">
-        <v>1.8</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
         <v>18123.9949973</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>22053.6756126</v>
       </c>
       <c r="G91">
-        <v>1.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>1156.02919032</v>
       </c>
       <c r="G92">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
         <v>21040.733631899999</v>
       </c>
       <c r="G93">
-        <v>2.9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>6434.6392798300003</v>
       </c>
       <c r="G94">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2604,7 +2604,7 @@
         <v>6101.9305845199997</v>
       </c>
       <c r="G95">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
         <v>21810.8090142</v>
       </c>
       <c r="G96">
-        <v>9.6999999999999993</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
         <v>10211.959573300001</v>
       </c>
       <c r="G97">
-        <v>5.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2673,7 +2673,7 @@
         <v>16656.381140500001</v>
       </c>
       <c r="G98">
-        <v>24.5</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2696,7 +2696,7 @@
         <v>13839.4651273</v>
       </c>
       <c r="G99">
-        <v>18.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>6859.4579491499999</v>
       </c>
       <c r="G100">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
         <v>13702.158179599999</v>
       </c>
       <c r="G101">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>12816.825453900001</v>
       </c>
       <c r="G102">
-        <v>25.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -2788,7 +2788,7 @@
         <v>1238.7332112300001</v>
       </c>
       <c r="G103">
-        <v>15.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2811,7 +2811,7 @@
         <v>21996.011301300001</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2834,7 +2834,7 @@
         <v>8435.8943720900006</v>
       </c>
       <c r="G105">
-        <v>16.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>15605.9804181</v>
       </c>
       <c r="G106">
-        <v>11.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2880,7 +2880,7 @@
         <v>11815.517507299999</v>
       </c>
       <c r="G107">
-        <v>16.5</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2903,7 +2903,7 @@
         <v>5068.5246152700001</v>
       </c>
       <c r="G108">
-        <v>4.5999999999999996</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2926,7 +2926,7 @@
         <v>3725.2195041099999</v>
       </c>
       <c r="G109">
-        <v>13.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>5243.7933348200004</v>
       </c>
       <c r="G110">
-        <v>21.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
         <v>5538.1628443199997</v>
       </c>
       <c r="G111">
-        <v>10.9</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>9096.9362830600003</v>
       </c>
       <c r="G112">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3018,7 +3018,7 @@
         <v>16263.4408602</v>
       </c>
       <c r="G113">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3041,7 +3041,7 @@
         <v>14068.943299</v>
       </c>
       <c r="G114">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3064,7 +3064,7 @@
         <v>1553.43174363</v>
       </c>
       <c r="G115">
-        <v>13.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3087,7 +3087,7 @@
         <v>8392.7904985599998</v>
       </c>
       <c r="G116">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
         <v>26352.375011100001</v>
       </c>
       <c r="G117">
-        <v>5.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>4054.0946355800002</v>
       </c>
       <c r="G118">
-        <v>11.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>15086.524534300001</v>
       </c>
       <c r="G119">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
         <v>8229.6149819700004</v>
       </c>
       <c r="G120">
-        <v>16.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>5804.48573855</v>
       </c>
       <c r="G121">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3225,7 +3225,7 @@
         <v>12319.384499899999</v>
       </c>
       <c r="G122">
-        <v>9.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3248,7 +3248,7 @@
         <v>10132.088903</v>
       </c>
       <c r="G123">
-        <v>18.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3271,7 +3271,7 @@
         <v>16079.4237882</v>
       </c>
       <c r="G124">
-        <v>15.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
         <v>15465.694398400001</v>
       </c>
       <c r="G125">
-        <v>13.2</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3317,7 +3317,7 @@
         <v>5660.9066427300004</v>
       </c>
       <c r="G126">
-        <v>15.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>20094.494262799999</v>
       </c>
       <c r="G127">
-        <v>7.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3363,7 +3363,7 @@
         <v>6901.0654490099996</v>
       </c>
       <c r="G128">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3386,7 +3386,7 @@
         <v>17076.661597599999</v>
       </c>
       <c r="G129">
-        <v>12.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3409,7 +3409,7 @@
         <v>11198.7424452</v>
       </c>
       <c r="G130">
-        <v>7.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
         <v>3282.2967273099998</v>
       </c>
       <c r="G131">
-        <v>23.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3455,7 +3455,7 @@
         <v>17237.237237199999</v>
       </c>
       <c r="G132">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -3478,7 +3478,7 @@
         <v>10031.1171287</v>
       </c>
       <c r="G133">
-        <v>11.9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
         <v>1642.1899870899999</v>
       </c>
       <c r="G134">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3524,7 +3524,7 @@
         <v>16406.579502299999</v>
       </c>
       <c r="G135">
-        <v>14.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>15049.5845618</v>
       </c>
       <c r="G136">
-        <v>19.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -3570,7 +3570,7 @@
         <v>8100.1915799799999</v>
       </c>
       <c r="G137">
-        <v>4.9000000000000004</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
         <v>9929.9165878399999</v>
       </c>
       <c r="G138">
-        <v>6.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>16401.619199100001</v>
       </c>
       <c r="G139">
-        <v>8.6999999999999993</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -3639,7 +3639,7 @@
         <v>9420.6008583700004</v>
       </c>
       <c r="G140">
-        <v>1.7</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>6245.40778839</v>
       </c>
       <c r="G141">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -3685,7 +3685,7 @@
         <v>10626.846242400001</v>
       </c>
       <c r="G142">
-        <v>7</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -3708,7 +3708,7 @@
         <v>11826.7276423</v>
       </c>
       <c r="G143">
-        <v>3.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -3731,7 +3731,7 @@
         <v>9856.9570871300002</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>19009.855251000001</v>
       </c>
       <c r="G145">
-        <v>2.7</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -3777,7 +3777,7 @@
         <v>4971.5234931200002</v>
       </c>
       <c r="G146">
-        <v>16.100000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
         <v>12128.4644484</v>
       </c>
       <c r="G147">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -3823,7 +3823,7 @@
         <v>5812.7717237899997</v>
       </c>
       <c r="G148">
-        <v>5.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -3846,7 +3846,7 @@
         <v>17600.508317899999</v>
       </c>
       <c r="G149">
-        <v>8.8000000000000007</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
         <v>17763.297684000001</v>
       </c>
       <c r="G150">
-        <v>11.6</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -3892,7 +3892,7 @@
         <v>4166.21665407</v>
       </c>
       <c r="G151">
-        <v>6.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -3915,7 +3915,7 @@
         <v>12467.934076</v>
       </c>
       <c r="G152">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -3938,7 +3938,7 @@
         <v>17630.853994500001</v>
       </c>
       <c r="G153">
-        <v>8.3000000000000007</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -3961,7 +3961,7 @@
         <v>17307.012374800001</v>
       </c>
       <c r="G154">
-        <v>8.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -3984,7 +3984,7 @@
         <v>2414.7182828700002</v>
       </c>
       <c r="G155">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
         <v>31482.560559400001</v>
       </c>
       <c r="G156">
-        <v>4.4000000000000004</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>3900.7347126599998</v>
       </c>
       <c r="G157">
-        <v>8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
         <v>18034.388433</v>
       </c>
       <c r="G158">
-        <v>3.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
         <v>11291.399572599999</v>
       </c>
       <c r="G159">
-        <v>1.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>14808.6522463</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4122,7 +4122,7 @@
         <v>9214.8972371500004</v>
       </c>
       <c r="G161">
-        <v>15.4</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>14738.6500789</v>
       </c>
       <c r="G162">
-        <v>8.3000000000000007</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
         <v>11657.478868099999</v>
       </c>
       <c r="G163">
-        <v>28.4</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>16140.3508772</v>
       </c>
       <c r="G164">
-        <v>32.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>12696.550761099999</v>
       </c>
       <c r="G165">
-        <v>17.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
         <v>14619.254628000001</v>
       </c>
       <c r="G166">
-        <v>26</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
         <v>4767.7776440899997</v>
       </c>
       <c r="G167">
-        <v>9.1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4283,7 +4283,7 @@
         <v>11802.0160834</v>
       </c>
       <c r="G168">
-        <v>8.6999999999999993</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4306,7 +4306,7 @@
         <v>16806.333864600001</v>
       </c>
       <c r="G169">
-        <v>13.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4329,7 +4329,7 @@
         <v>1982.08143191</v>
       </c>
       <c r="G170">
-        <v>6.4</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4352,7 +4352,7 @@
         <v>13777.4528618</v>
       </c>
       <c r="G171">
-        <v>10.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4375,7 +4375,7 @@
         <v>18697.162330399999</v>
       </c>
       <c r="G172">
-        <v>16.399999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>12639.074321300001</v>
       </c>
       <c r="G173">
-        <v>25.1</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
         <v>8284.5024833999996</v>
       </c>
       <c r="G174">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
         <v>18655.213270100001</v>
       </c>
       <c r="G175">
-        <v>17.8</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -4467,7 +4467,7 @@
         <v>17414.4855283</v>
       </c>
       <c r="G176">
-        <v>22.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -4490,7 +4490,7 @@
         <v>16164.6246531</v>
       </c>
       <c r="G177">
-        <v>12</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -4513,7 +4513,7 @@
         <v>16311.369509</v>
       </c>
       <c r="G178">
-        <v>22.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -4559,7 +4559,7 @@
         <v>12132.625691900001</v>
       </c>
       <c r="G180">
-        <v>17.2</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>22352.437981200001</v>
       </c>
       <c r="G181">
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -4605,7 +4605,7 @@
         <v>17817.279867699999</v>
       </c>
       <c r="G182">
-        <v>12.2</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>9239.9291555199998</v>
       </c>
       <c r="G183">
-        <v>13</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -4651,7 +4651,7 @@
         <v>19926.199261999998</v>
       </c>
       <c r="G184">
-        <v>23.8</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -4674,7 +4674,7 @@
         <v>3334.1565818700001</v>
       </c>
       <c r="G185">
-        <v>15.2</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,7 +4697,7 @@
         <v>12810.978907500001</v>
       </c>
       <c r="G186">
-        <v>2.1</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
         <v>14045.3182273</v>
       </c>
       <c r="G187">
-        <v>5.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -4743,7 +4743,7 @@
         <v>10781.2844847</v>
       </c>
       <c r="G188">
-        <v>7.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>17030.826558299999</v>
       </c>
       <c r="G189">
-        <v>6.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
         <v>18576.8834475</v>
       </c>
       <c r="G190">
-        <v>4.4000000000000004</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
         <v>9830.4816223100006</v>
       </c>
       <c r="G191">
-        <v>2.2000000000000002</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -4835,7 +4835,7 @@
         <v>15785.2077001</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -4858,7 +4858,7 @@
         <v>22517.531556800001</v>
       </c>
       <c r="G193">
-        <v>21.4</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -4881,7 +4881,7 @@
         <v>1655.28393013</v>
       </c>
       <c r="G194">
-        <v>1.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -4904,7 +4904,7 @@
         <v>12398.5572588</v>
       </c>
       <c r="G195">
-        <v>2.2000000000000002</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -4927,7 +4927,7 @@
         <v>16680.567139300001</v>
       </c>
       <c r="G196">
-        <v>5.2</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
         <v>9968.5410931999995</v>
       </c>
       <c r="G197">
-        <v>0.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -4973,7 +4973,7 @@
         <v>16489.278037</v>
       </c>
       <c r="G198">
-        <v>4.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -4996,17 +4996,7 @@
         <v>23506.923795800001</v>
       </c>
       <c r="G199">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G200">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G201">
-        <v>0.5</v>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/Baltimore Data/Baltimore_Master.xlsx
+++ b/data/Baltimore Data/Baltimore_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Midterm\Baltimore Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253B027-5ED3-4A53-B713-E274E5AA02EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53AECE-90EC-4571-9C28-52C5D0E4AC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FEFAC233-E257-47F6-B14B-35AD3F2DEE05}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CT2010</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Unemployed</t>
+  </si>
+  <si>
+    <t>PercentVehicle</t>
+  </si>
+  <si>
+    <t>Employed</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C81F8-91BC-41F4-8391-004E67164647}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,9 +426,10 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +451,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24510271102</v>
       </c>
@@ -467,8 +480,16 @@
       <c r="G2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>100-C2</f>
+        <v>98.6</v>
+      </c>
+      <c r="J2">
+        <f>100-G2</f>
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24510271300</v>
       </c>
@@ -490,8 +511,16 @@
       <c r="G3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">100-C3</f>
+        <v>98.1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">100-G3</f>
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24510271200</v>
       </c>
@@ -513,8 +542,16 @@
       <c r="G4">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>93.9</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24510010300</v>
       </c>
@@ -536,8 +573,16 @@
       <c r="G5">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24510240200</v>
       </c>
@@ -559,8 +604,16 @@
       <c r="G6">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>95.9</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24510240100</v>
       </c>
@@ -582,8 +635,16 @@
       <c r="G7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>95.2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24510271400</v>
       </c>
@@ -605,8 +666,16 @@
       <c r="G8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>88.7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24510261100</v>
       </c>
@@ -628,8 +697,16 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>91.6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24510240300</v>
       </c>
@@ -651,8 +728,16 @@
       <c r="G10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>90.3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24510010400</v>
       </c>
@@ -674,8 +759,16 @@
       <c r="G11">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24510010100</v>
       </c>
@@ -697,8 +790,16 @@
       <c r="G12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>93.3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24510230200</v>
       </c>
@@ -720,8 +821,16 @@
       <c r="G13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24510020300</v>
       </c>
@@ -743,8 +852,16 @@
       <c r="G14">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>87.6</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24510010200</v>
       </c>
@@ -766,8 +883,16 @@
       <c r="G15">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>92.2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24510230300</v>
       </c>
@@ -789,8 +914,16 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>96.6</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24510260900</v>
       </c>
@@ -812,8 +945,16 @@
       <c r="G17">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>93.1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24510240400</v>
       </c>
@@ -835,8 +976,16 @@
       <c r="G18">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24510271501</v>
       </c>
@@ -858,8 +1007,16 @@
       <c r="G19">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>97.8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24510010500</v>
       </c>
@@ -881,8 +1038,16 @@
       <c r="G20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>91.2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24510130600</v>
       </c>
@@ -904,8 +1069,16 @@
       <c r="G21">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>84.4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24510020100</v>
       </c>
@@ -927,8 +1100,16 @@
       <c r="G22">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24510020200</v>
       </c>
@@ -950,8 +1131,16 @@
       <c r="G23">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>82.1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24510130806</v>
       </c>
@@ -973,8 +1162,16 @@
       <c r="G24">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>85.7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24510120201</v>
       </c>
@@ -996,8 +1193,16 @@
       <c r="G25">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>83.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24510270402</v>
       </c>
@@ -1019,8 +1224,16 @@
       <c r="G26">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24510030200</v>
       </c>
@@ -1042,8 +1255,16 @@
       <c r="G27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>76.7</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24510220100</v>
       </c>
@@ -1065,8 +1286,16 @@
       <c r="G28">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>74.2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24510270200</v>
       </c>
@@ -1088,8 +1317,16 @@
       <c r="G29">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>89.7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24510270302</v>
       </c>
@@ -1111,8 +1348,16 @@
       <c r="G30">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>91.1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24510270101</v>
       </c>
@@ -1134,8 +1379,16 @@
       <c r="G31">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24510060200</v>
       </c>
@@ -1157,8 +1410,16 @@
       <c r="G32">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>78.7</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24510271503</v>
       </c>
@@ -1180,8 +1441,16 @@
       <c r="G33">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>96.3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24510230100</v>
       </c>
@@ -1203,8 +1472,16 @@
       <c r="G34">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>86.3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24510090200</v>
       </c>
@@ -1226,8 +1503,16 @@
       <c r="G35">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>91.2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24510270502</v>
       </c>
@@ -1249,8 +1534,16 @@
       <c r="G36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24510060300</v>
       </c>
@@ -1272,8 +1565,16 @@
       <c r="G37">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>81.7</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24510130804</v>
       </c>
@@ -1295,8 +1596,16 @@
       <c r="G38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>89.1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24510272003</v>
       </c>
@@ -1318,8 +1627,16 @@
       <c r="G39">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>84.9</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24510120100</v>
       </c>
@@ -1341,8 +1658,16 @@
       <c r="G40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>67.8</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24510270102</v>
       </c>
@@ -1364,8 +1689,16 @@
       <c r="G41">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24510270301</v>
       </c>
@@ -1387,8 +1720,16 @@
       <c r="G42">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>94.2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24510270401</v>
       </c>
@@ -1410,8 +1751,16 @@
       <c r="G43">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24510120700</v>
       </c>
@@ -1433,8 +1782,16 @@
       <c r="G44">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>75.2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24510210100</v>
       </c>
@@ -1456,8 +1813,16 @@
       <c r="G45">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>24510080101</v>
       </c>
@@ -1479,8 +1844,16 @@
       <c r="G46">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24510280403</v>
       </c>
@@ -1502,8 +1875,16 @@
       <c r="G47">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>80.7</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24510040100</v>
       </c>
@@ -1525,8 +1906,16 @@
       <c r="G48">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24510270501</v>
       </c>
@@ -1548,8 +1937,16 @@
       <c r="G49">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>97.9</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24510270703</v>
       </c>
@@ -1571,8 +1968,16 @@
       <c r="G50">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>90.7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>24510120500</v>
       </c>
@@ -1594,8 +1999,16 @@
       <c r="G51">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>24510272005</v>
       </c>
@@ -1617,8 +2030,16 @@
       <c r="G52">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>86.4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>24510260700</v>
       </c>
@@ -1640,8 +2061,16 @@
       <c r="G53">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>89.9</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24510270600</v>
       </c>
@@ -1663,8 +2092,16 @@
       <c r="G54">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>93.7</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24510130700</v>
       </c>
@@ -1686,8 +2123,16 @@
       <c r="G55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24510260101</v>
       </c>
@@ -1709,8 +2154,16 @@
       <c r="G56">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>91.6</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24510270902</v>
       </c>
@@ -1732,8 +2185,16 @@
       <c r="G57">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>89.9</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>24510250206</v>
       </c>
@@ -1755,8 +2216,16 @@
       <c r="G58">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>87.7</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>24510280200</v>
       </c>
@@ -1778,8 +2247,16 @@
       <c r="G59">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>87.7</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24510270804</v>
       </c>
@@ -1801,8 +2278,16 @@
       <c r="G60">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>82.1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24510260501</v>
       </c>
@@ -1824,8 +2309,16 @@
       <c r="G61">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>82.8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>24510260102</v>
       </c>
@@ -1847,8 +2340,16 @@
       <c r="G62">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>24510271101</v>
       </c>
@@ -1870,8 +2371,16 @@
       <c r="G63">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24510060400</v>
       </c>
@@ -1893,8 +2402,16 @@
       <c r="G64">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>24510280102</v>
       </c>
@@ -1916,8 +2433,16 @@
       <c r="G65">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>24510110100</v>
       </c>
@@ -1939,8 +2464,16 @@
       <c r="G66">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>24510130803</v>
       </c>
@@ -1962,8 +2495,16 @@
       <c r="G67">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="2">100-C67</f>
+        <v>84</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="3">100-G67</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>24510150900</v>
       </c>
@@ -1985,8 +2526,16 @@
       <c r="G68">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>85.7</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>24510270805</v>
       </c>
@@ -2008,8 +2557,16 @@
       <c r="G69">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>90.3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>24510250101</v>
       </c>
@@ -2031,8 +2588,16 @@
       <c r="G70">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>80.2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>24510270801</v>
       </c>
@@ -2054,8 +2619,16 @@
       <c r="G71">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>24510270702</v>
       </c>
@@ -2077,8 +2650,16 @@
       <c r="G72">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>87.8</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>24510120300</v>
       </c>
@@ -2100,8 +2681,16 @@
       <c r="G73">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>24510270901</v>
       </c>
@@ -2123,8 +2712,16 @@
       <c r="G74">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>73.7</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>24510261000</v>
       </c>
@@ -2146,8 +2743,16 @@
       <c r="G75">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="2"/>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>24510151100</v>
       </c>
@@ -2169,8 +2774,16 @@
       <c r="G76">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f t="shared" si="2"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>24510271900</v>
       </c>
@@ -2192,8 +2805,16 @@
       <c r="G77">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>24510270803</v>
       </c>
@@ -2215,8 +2836,16 @@
       <c r="G78">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>24510250402</v>
       </c>
@@ -2238,8 +2867,16 @@
       <c r="G79">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="2"/>
+        <v>69.3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>24510270802</v>
       </c>
@@ -2261,8 +2898,16 @@
       <c r="G80">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="2"/>
+        <v>66.3</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>24510140100</v>
       </c>
@@ -2284,8 +2929,16 @@
       <c r="G81">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f t="shared" si="2"/>
+        <v>59.8</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>24510060100</v>
       </c>
@@ -2307,8 +2960,16 @@
       <c r="G82">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>24510270903</v>
       </c>
@@ -2330,8 +2991,16 @@
       <c r="G83">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>78.7</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>24510280402</v>
       </c>
@@ -2353,8 +3022,16 @@
       <c r="G84">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>82.9</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>24510280101</v>
       </c>
@@ -2376,8 +3053,16 @@
       <c r="G85">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>24510150701</v>
       </c>
@@ -2399,8 +3084,16 @@
       <c r="G86">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>24510130200</v>
       </c>
@@ -2422,8 +3115,16 @@
       <c r="G87">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <f t="shared" si="2"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>24510280401</v>
       </c>
@@ -2445,8 +3146,16 @@
       <c r="G88">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <f t="shared" si="2"/>
+        <v>78.7</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>24510090100</v>
       </c>
@@ -2468,8 +3177,16 @@
       <c r="G89">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24510110200</v>
       </c>
@@ -2491,8 +3208,16 @@
       <c r="G90">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>54.6</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24510090600</v>
       </c>
@@ -2514,8 +3239,16 @@
       <c r="G91">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>24510260404</v>
       </c>
@@ -2537,8 +3270,16 @@
       <c r="G92">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>62.6</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>24510260301</v>
       </c>
@@ -2560,8 +3301,16 @@
       <c r="G93">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>24510160802</v>
       </c>
@@ -2583,8 +3332,16 @@
       <c r="G94">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>24510280302</v>
       </c>
@@ -2606,8 +3363,16 @@
       <c r="G95">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>71.7</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24510160801</v>
       </c>
@@ -2629,8 +3394,16 @@
       <c r="G96">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24510250102</v>
       </c>
@@ -2652,8 +3425,16 @@
       <c r="G97">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>82.3</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>24510150200</v>
       </c>
@@ -2675,8 +3456,16 @@
       <c r="G98">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" si="2"/>
+        <v>62.1</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>24510272004</v>
       </c>
@@ -2698,8 +3487,16 @@
       <c r="G99">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <f t="shared" si="2"/>
+        <v>84.1</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>24510090500</v>
       </c>
@@ -2721,8 +3518,16 @@
       <c r="G100">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>24510090300</v>
       </c>
@@ -2744,8 +3549,16 @@
       <c r="G101">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <f t="shared" si="2"/>
+        <v>60.2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>24510200702</v>
       </c>
@@ -2767,8 +3580,16 @@
       <c r="G102">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <f t="shared" si="2"/>
+        <v>68.8</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>24510260605</v>
       </c>
@@ -2790,8 +3611,16 @@
       <c r="G103">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="3"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>24510260800</v>
       </c>
@@ -2813,8 +3642,16 @@
       <c r="G104">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <f t="shared" si="2"/>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="3"/>
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>24510271700</v>
       </c>
@@ -2836,8 +3673,16 @@
       <c r="G105">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <f t="shared" si="2"/>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="3"/>
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>24510150702</v>
       </c>
@@ -2859,8 +3704,16 @@
       <c r="G106">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="3"/>
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>24510271001</v>
       </c>
@@ -2882,8 +3735,16 @@
       <c r="G107">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <f t="shared" si="2"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="3"/>
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>24510260402</v>
       </c>
@@ -2905,8 +3766,16 @@
       <c r="G108">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="3"/>
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24510210200</v>
       </c>
@@ -2928,8 +3797,16 @@
       <c r="G109">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <f t="shared" si="2"/>
+        <v>61.8</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24510250205</v>
       </c>
@@ -2951,8 +3828,16 @@
       <c r="G110">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="3"/>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24510200800</v>
       </c>
@@ -2974,8 +3859,16 @@
       <c r="G111">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <f t="shared" si="2"/>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24510151000</v>
       </c>
@@ -2997,8 +3890,16 @@
       <c r="G112">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <f t="shared" si="2"/>
+        <v>58.3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24510160600</v>
       </c>
@@ -3020,8 +3921,16 @@
       <c r="G113">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>62.3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="3"/>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24510272007</v>
       </c>
@@ -3043,8 +3952,16 @@
       <c r="G114">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <f t="shared" si="2"/>
+        <v>80.3</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="3"/>
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24510130805</v>
       </c>
@@ -3066,8 +3983,16 @@
       <c r="G115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24510250401</v>
       </c>
@@ -3089,8 +4014,16 @@
       <c r="G116">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="2"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="3"/>
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24510070100</v>
       </c>
@@ -3112,8 +4045,16 @@
       <c r="G117">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <f t="shared" si="2"/>
+        <v>45.8</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="3"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>24510250103</v>
       </c>
@@ -3135,8 +4076,16 @@
       <c r="G118">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <f t="shared" si="2"/>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="3"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24510260202</v>
       </c>
@@ -3158,8 +4107,16 @@
       <c r="G119">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <f t="shared" si="2"/>
+        <v>73.8</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24510260203</v>
       </c>
@@ -3181,8 +4138,16 @@
       <c r="G120">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <f t="shared" si="2"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="3"/>
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24510250303</v>
       </c>
@@ -3204,8 +4169,16 @@
       <c r="G121">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <f t="shared" si="2"/>
+        <v>66.7</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="3"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24510120400</v>
       </c>
@@ -3227,8 +4200,16 @@
       <c r="G122">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <f t="shared" si="2"/>
+        <v>62.4</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="3"/>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24510080800</v>
       </c>
@@ -3250,8 +4231,16 @@
       <c r="G123">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <f t="shared" si="2"/>
+        <v>58.4</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="3"/>
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24510150300</v>
       </c>
@@ -3273,8 +4262,16 @@
       <c r="G124">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <f t="shared" si="2"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="3"/>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24510140300</v>
       </c>
@@ -3296,8 +4293,16 @@
       <c r="G125">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <f t="shared" si="2"/>
+        <v>56.4</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="3"/>
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24510250203</v>
       </c>
@@ -3319,8 +4324,16 @@
       <c r="G126">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="3"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24510080301</v>
       </c>
@@ -3342,8 +4355,16 @@
       <c r="G127">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="3"/>
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>24510280404</v>
       </c>
@@ -3365,8 +4386,16 @@
       <c r="G128">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <f t="shared" si="2"/>
+        <v>61.1</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="3"/>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24510180300</v>
       </c>
@@ -3388,8 +4417,16 @@
       <c r="G129">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <f t="shared" si="2"/>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="3"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>24510271002</v>
       </c>
@@ -3411,8 +4448,16 @@
       <c r="G130">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <f t="shared" si="2"/>
+        <v>80.3</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="3"/>
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>24510280301</v>
       </c>
@@ -3434,8 +4479,16 @@
       <c r="G131">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="4">100-C131</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="5">100-G131</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>24510270701</v>
       </c>
@@ -3457,8 +4510,16 @@
       <c r="G132">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="5"/>
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>24510150800</v>
       </c>
@@ -3480,8 +4541,16 @@
       <c r="G133">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="5"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>24510250500</v>
       </c>
@@ -3503,8 +4572,16 @@
       <c r="G134">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <f t="shared" si="4"/>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="5"/>
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>24510120202</v>
       </c>
@@ -3526,8 +4603,16 @@
       <c r="G135">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>58.9</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="5"/>
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>24510160700</v>
       </c>
@@ -3549,8 +4634,16 @@
       <c r="G136">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <f t="shared" si="4"/>
+        <v>63.1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>24510260201</v>
       </c>
@@ -3572,8 +4665,16 @@
       <c r="G137">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <f t="shared" si="4"/>
+        <v>68.5</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="5"/>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>24510200701</v>
       </c>
@@ -3595,8 +4696,16 @@
       <c r="G138">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <f t="shared" si="4"/>
+        <v>53.3</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="5"/>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>24510130300</v>
       </c>
@@ -3618,8 +4727,16 @@
       <c r="G139">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <f t="shared" si="4"/>
+        <v>55.5</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="5"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>24510090800</v>
       </c>
@@ -3641,8 +4758,16 @@
       <c r="G140">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <f t="shared" si="4"/>
+        <v>55.8</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>24510260401</v>
       </c>
@@ -3664,8 +4789,16 @@
       <c r="G141">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <f t="shared" si="4"/>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>24510160500</v>
       </c>
@@ -3687,8 +4820,16 @@
       <c r="G142">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <f t="shared" si="4"/>
+        <v>62.1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="5"/>
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>24510150400</v>
       </c>
@@ -3710,8 +4851,16 @@
       <c r="G143">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <f t="shared" si="4"/>
+        <v>54.4</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="5"/>
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>24510080700</v>
       </c>
@@ -3733,8 +4882,16 @@
       <c r="G144">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <f t="shared" si="4"/>
+        <v>53.7</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="5"/>
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>24510080600</v>
       </c>
@@ -3756,8 +4913,16 @@
       <c r="G145">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <f t="shared" si="4"/>
+        <v>48.5</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="5"/>
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>24510040200</v>
       </c>
@@ -3779,8 +4944,16 @@
       <c r="G146">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <f t="shared" si="4"/>
+        <v>49.6</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="5"/>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>24510200500</v>
       </c>
@@ -3802,8 +4975,16 @@
       <c r="G147">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <f t="shared" si="4"/>
+        <v>39.5</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="5"/>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>24510250207</v>
       </c>
@@ -3825,8 +5006,16 @@
       <c r="G148">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="5"/>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>24510260302</v>
       </c>
@@ -3848,8 +5037,16 @@
       <c r="G149">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <f t="shared" si="4"/>
+        <v>59.4</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="5"/>
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>24510080102</v>
       </c>
@@ -3871,8 +5068,16 @@
       <c r="G150">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <f t="shared" si="4"/>
+        <v>50.3</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="5"/>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>24510150500</v>
       </c>
@@ -3894,8 +5099,16 @@
       <c r="G151">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <f t="shared" si="4"/>
+        <v>58.9</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="5"/>
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>24510272006</v>
       </c>
@@ -3917,8 +5130,16 @@
       <c r="G152">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <f t="shared" si="4"/>
+        <v>58.9</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="5"/>
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>24510190200</v>
       </c>
@@ -3940,8 +5161,16 @@
       <c r="G153">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <f t="shared" si="4"/>
+        <v>50.9</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="5"/>
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>24510080302</v>
       </c>
@@ -3963,8 +5192,16 @@
       <c r="G154">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <f t="shared" si="4"/>
+        <v>61.2</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>24510260403</v>
       </c>
@@ -3986,8 +5223,16 @@
       <c r="G155">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="5"/>
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>24510070200</v>
       </c>
@@ -4009,8 +5254,16 @@
       <c r="G156">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <f t="shared" si="4"/>
+        <v>45.1</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="5"/>
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>24510200600</v>
       </c>
@@ -4032,8 +5285,16 @@
       <c r="G157">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <f t="shared" si="4"/>
+        <v>77.8</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="5"/>
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>24510200100</v>
       </c>
@@ -4055,8 +5316,16 @@
       <c r="G158">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <f t="shared" si="4"/>
+        <v>57.3</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>24510200400</v>
       </c>
@@ -4078,8 +5347,16 @@
       <c r="G159">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <f t="shared" si="4"/>
+        <v>57.6</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="5"/>
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>24510170100</v>
       </c>
@@ -4101,8 +5378,16 @@
       <c r="G160">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <f t="shared" si="4"/>
+        <v>49.9</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>24510150600</v>
       </c>
@@ -4124,8 +5409,16 @@
       <c r="G161">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <f t="shared" si="4"/>
+        <v>55.4</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="5"/>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24510271801</v>
       </c>
@@ -4147,8 +5440,16 @@
       <c r="G162">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <f t="shared" si="4"/>
+        <v>65.7</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="5"/>
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>24510090400</v>
       </c>
@@ -4170,8 +5471,16 @@
       <c r="G163">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <f t="shared" si="4"/>
+        <v>55.4</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="5"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>24510080400</v>
       </c>
@@ -4193,8 +5502,16 @@
       <c r="G164">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <f t="shared" si="4"/>
+        <v>41.6</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="5"/>
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>24510151300</v>
       </c>
@@ -4216,8 +5533,16 @@
       <c r="G165">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <f t="shared" si="4"/>
+        <v>55.4</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="5"/>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>24510271802</v>
       </c>
@@ -4239,8 +5564,16 @@
       <c r="G166">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <f t="shared" si="4"/>
+        <v>51.9</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>24510080200</v>
       </c>
@@ -4262,8 +5595,16 @@
       <c r="G167">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <f t="shared" si="4"/>
+        <v>42.2</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="5"/>
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>24510070300</v>
       </c>
@@ -4285,8 +5626,16 @@
       <c r="G168">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <f t="shared" si="4"/>
+        <v>52.4</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24510120600</v>
       </c>
@@ -4308,8 +5657,16 @@
       <c r="G169">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <f t="shared" si="4"/>
+        <v>54.5</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="5"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>24510130400</v>
       </c>
@@ -4331,8 +5688,16 @@
       <c r="G170">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <f t="shared" si="4"/>
+        <v>60.2</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="5"/>
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>24510271600</v>
       </c>
@@ -4354,8 +5719,16 @@
       <c r="G171">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <f t="shared" si="4"/>
+        <v>49.1</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="5"/>
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>24510140200</v>
       </c>
@@ -4377,8 +5750,16 @@
       <c r="G172">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <f t="shared" si="4"/>
+        <v>49.5</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="5"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>24510080500</v>
       </c>
@@ -4400,8 +5781,16 @@
       <c r="G173">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <f t="shared" si="4"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="5"/>
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>24510200200</v>
       </c>
@@ -4423,8 +5812,16 @@
       <c r="G174">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <f t="shared" si="4"/>
+        <v>45.2</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="5"/>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>24510090700</v>
       </c>
@@ -4446,8 +5843,16 @@
       <c r="G175">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <f t="shared" si="4"/>
+        <v>49.8</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="5"/>
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>24510160200</v>
       </c>
@@ -4469,8 +5874,16 @@
       <c r="G176">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <f t="shared" si="4"/>
+        <v>48.1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="5"/>
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>24510160100</v>
       </c>
@@ -4492,8 +5905,16 @@
       <c r="G177">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <f t="shared" si="4"/>
+        <v>32.599999999999994</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="5"/>
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>24510160400</v>
       </c>
@@ -4515,8 +5936,16 @@
       <c r="G178">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <f t="shared" si="4"/>
+        <v>53.9</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>24510260604</v>
       </c>
@@ -4538,8 +5967,16 @@
       <c r="G179">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <f t="shared" si="4"/>
+        <v>57.4</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="5"/>
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>24510100100</v>
       </c>
@@ -4561,8 +5998,16 @@
       <c r="G180">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <f t="shared" si="4"/>
+        <v>41.4</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="5"/>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>24510130100</v>
       </c>
@@ -4584,8 +6029,16 @@
       <c r="G181">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <f t="shared" si="4"/>
+        <v>48.1</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="5"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>24510190300</v>
       </c>
@@ -4607,8 +6060,16 @@
       <c r="G182">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="5"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>24510090900</v>
       </c>
@@ -4630,8 +6091,16 @@
       <c r="G183">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <f t="shared" si="4"/>
+        <v>47.1</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="5"/>
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>24510200300</v>
       </c>
@@ -4653,8 +6122,16 @@
       <c r="G184">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <f t="shared" si="4"/>
+        <v>47.1</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="5"/>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>24510250301</v>
       </c>
@@ -4676,8 +6153,16 @@
       <c r="G185">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <f t="shared" si="4"/>
+        <v>61.2</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="5"/>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>24510190100</v>
       </c>
@@ -4699,8 +6184,16 @@
       <c r="G186">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <f t="shared" si="4"/>
+        <v>45.2</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="5"/>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>24510151200</v>
       </c>
@@ -4722,8 +6215,16 @@
       <c r="G187">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <f t="shared" si="4"/>
+        <v>32.599999999999994</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="5"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>24510180200</v>
       </c>
@@ -4745,8 +6246,16 @@
       <c r="G188">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <f t="shared" si="4"/>
+        <v>48.5</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="5"/>
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>24510170300</v>
       </c>
@@ -4768,8 +6277,16 @@
       <c r="G189">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <f t="shared" si="4"/>
+        <v>56.4</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="5"/>
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>24510030100</v>
       </c>
@@ -4791,8 +6308,16 @@
       <c r="G190">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <f t="shared" si="4"/>
+        <v>40.9</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="5"/>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>24510070400</v>
       </c>
@@ -4814,8 +6339,16 @@
       <c r="G191">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <f t="shared" si="4"/>
+        <v>42.1</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="5"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>24510160300</v>
       </c>
@@ -4837,8 +6370,16 @@
       <c r="G192">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <f t="shared" si="4"/>
+        <v>31.900000000000006</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="5"/>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>24510150100</v>
       </c>
@@ -4860,8 +6401,16 @@
       <c r="G193">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <f t="shared" si="4"/>
+        <v>28.700000000000003</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="5"/>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>24510260303</v>
       </c>
@@ -4883,8 +6432,16 @@
       <c r="G194">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <f t="shared" si="4"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="5"/>
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>24510250204</v>
       </c>
@@ -4906,8 +6463,16 @@
       <c r="G195">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <f t="shared" ref="I195:I199" si="6">100-C195</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J199" si="7">100-G195</f>
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>24510180100</v>
       </c>
@@ -4929,8 +6494,16 @@
       <c r="G196">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <f t="shared" si="6"/>
+        <v>36.5</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="7"/>
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>24510280500</v>
       </c>
@@ -4952,8 +6525,16 @@
       <c r="G197">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <f t="shared" si="6"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="7"/>
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>24510170200</v>
       </c>
@@ -4975,8 +6556,16 @@
       <c r="G198">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <f t="shared" si="6"/>
+        <v>25.099999999999994</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="7"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>24510100200</v>
       </c>
@@ -4997,6 +6586,14 @@
       </c>
       <c r="G199">
         <v>15.4</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="6"/>
+        <v>23.099999999999994</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="7"/>
+        <v>84.6</v>
       </c>
     </row>
   </sheetData>
